--- a/BackTest/2019-11-20 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-20 BackTest ENJ.xlsx
@@ -451,17 +451,13 @@
         <v>76.94999999999996</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="K2" t="n">
-        <v>77.09999999999999</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>76.84999999999997</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>76.59999999999999</v>
-      </c>
-      <c r="K3" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>76.84999999999997</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>77.14999999999996</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>77.04999999999997</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>77</v>
-      </c>
-      <c r="K6" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>76.89999999999998</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="K7" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>76.94999999999997</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>77</v>
-      </c>
-      <c r="K8" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>77.19999999999997</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="K9" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>77.49999999999997</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="K10" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>77.64999999999996</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="K11" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -883,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -924,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -965,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1006,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1047,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1088,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1129,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1170,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1211,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1252,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1293,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1334,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1375,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1416,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1457,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1498,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1539,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1580,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1621,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1662,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1700,19 +1504,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>1.019643320363165</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1741,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1776,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1811,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1846,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1881,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1916,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1951,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -2998,14 +2796,20 @@
         <v>77.09999999999999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>77.3</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3040,7 +2844,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3068,14 +2876,20 @@
         <v>76.94999999999999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>76.8</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3110,7 +2924,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3138,14 +2956,20 @@
         <v>76.99999999999999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>77</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3173,14 +2997,20 @@
         <v>77.14999999999998</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>77</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3208,14 +3038,20 @@
         <v>77.19999999999997</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>77.3</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3243,14 +3079,20 @@
         <v>77.24999999999997</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>77.09999999999999</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3278,14 +3120,20 @@
         <v>77.49999999999997</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>77.40000000000001</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3320,7 +3168,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3355,7 +3207,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3390,7 +3246,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3285,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3460,7 +3324,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3495,7 +3363,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3523,18 +3395,18 @@
         <v>76.8</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="K84" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3562,20 +3434,16 @@
         <v>76.65000000000001</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>76.59999999999999</v>
-      </c>
-      <c r="K85" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M85" t="n">
@@ -3611,9 +3479,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3646,17 +3512,13 @@
         <v>76.39999999999999</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>76.59999999999999</v>
-      </c>
-      <c r="K87" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3689,17 +3551,13 @@
         <v>76.59999999999999</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>76.59999999999999</v>
-      </c>
-      <c r="K88" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3732,17 +3590,13 @@
         <v>76.8</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="K89" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3775,17 +3629,13 @@
         <v>76.89999999999999</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="K90" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3818,17 +3668,13 @@
         <v>76.69999999999999</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>76.59999999999999</v>
-      </c>
-      <c r="K91" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3861,17 +3707,13 @@
         <v>76.64999999999998</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="K92" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3904,17 +3746,13 @@
         <v>76.79999999999998</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="K93" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3947,17 +3785,13 @@
         <v>76.89999999999998</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="K94" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3990,17 +3824,13 @@
         <v>77.04999999999997</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="K95" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4033,17 +3863,13 @@
         <v>77.39999999999996</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="K96" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4076,17 +3902,13 @@
         <v>77.99999999999997</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="K97" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4125,9 +3947,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4166,9 +3986,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4207,9 +4025,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4248,9 +4064,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4289,9 +4103,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4330,9 +4142,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4371,9 +4181,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4412,9 +4220,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4453,9 +4259,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4494,9 +4298,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4535,9 +4337,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4576,9 +4376,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4617,9 +4415,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4658,9 +4454,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4699,9 +4493,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4740,9 +4532,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4781,9 +4571,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4822,9 +4610,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4863,9 +4649,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4904,9 +4688,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4945,9 +4727,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4986,9 +4766,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5027,9 +4805,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5068,9 +4844,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5109,9 +4883,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5150,9 +4922,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5191,9 +4961,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5229,20 +4997,16 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5270,17 +5034,11 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5311,17 +5069,11 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5352,17 +5104,11 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5393,17 +5139,11 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5437,14 +5177,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5478,14 +5212,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5519,14 +5247,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5560,14 +5282,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5601,14 +5317,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5642,14 +5352,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5683,14 +5387,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5724,14 +5422,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5765,14 +5457,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5806,14 +5492,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5847,14 +5527,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5888,14 +5562,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5929,14 +5597,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5970,14 +5632,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6011,14 +5667,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6052,14 +5702,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6093,14 +5737,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6134,14 +5772,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6175,14 +5807,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6216,14 +5842,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6257,14 +5877,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6298,14 +5912,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6339,14 +5947,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6380,14 +5982,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6421,14 +6017,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6462,14 +6052,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6503,14 +6087,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6544,14 +6122,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6585,14 +6157,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6626,14 +6192,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6667,14 +6227,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6708,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6749,14 +6297,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6790,14 +6332,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6831,14 +6367,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6872,14 +6402,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6913,14 +6437,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6954,14 +6472,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6995,14 +6507,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7036,14 +6542,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7077,14 +6577,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7118,14 +6612,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7159,14 +6647,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7200,14 +6682,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7241,14 +6717,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7282,14 +6752,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7323,14 +6787,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7364,14 +6822,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7405,14 +6857,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7446,14 +6892,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7487,14 +6927,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7528,14 +6962,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7569,14 +6997,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7610,14 +7032,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7651,14 +7067,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7692,14 +7102,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7733,14 +7137,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7774,14 +7172,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7815,14 +7207,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7856,14 +7242,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7897,14 +7277,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-20 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-20 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M190"/>
+  <dimension ref="A1:M191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,25 +433,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77.09999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="C2" t="n">
-        <v>77.09999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="D2" t="n">
-        <v>77.09999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="E2" t="n">
-        <v>77.09999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="F2" t="n">
-        <v>20.7553</v>
+        <v>1388.6898</v>
       </c>
       <c r="G2" t="n">
-        <v>76.94999999999996</v>
+        <v>77.48666666666672</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>76.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>76.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>76.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>76.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>119.3704</v>
+        <v>20.7553</v>
       </c>
       <c r="G3" t="n">
-        <v>76.84999999999997</v>
+        <v>77.49166666666673</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>76.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>77.09999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>77.09999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>76.59999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>13813.8968</v>
+        <v>119.3704</v>
       </c>
       <c r="G4" t="n">
-        <v>76.84999999999997</v>
+        <v>77.48500000000007</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>77.2</v>
+        <v>76.7</v>
       </c>
       <c r="C5" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>77.2</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>2000</v>
+        <v>13813.8968</v>
       </c>
       <c r="G5" t="n">
-        <v>77.14999999999996</v>
+        <v>77.48666666666674</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="C6" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="D6" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="E6" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="F6" t="n">
-        <v>32535.4712</v>
+        <v>2000</v>
       </c>
       <c r="G6" t="n">
-        <v>77.04999999999997</v>
+        <v>77.48666666666674</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="C7" t="n">
         <v>76.90000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="E7" t="n">
         <v>76.90000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>13006.9115</v>
+        <v>32535.4712</v>
       </c>
       <c r="G7" t="n">
-        <v>76.89999999999998</v>
+        <v>77.47833333333341</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>3657.6817</v>
+        <v>13006.9115</v>
       </c>
       <c r="G8" t="n">
-        <v>76.94999999999997</v>
+        <v>77.46666666666673</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>77.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="C9" t="n">
-        <v>77.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="D9" t="n">
-        <v>77.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="E9" t="n">
-        <v>77.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="F9" t="n">
-        <v>3606</v>
+        <v>3657.6817</v>
       </c>
       <c r="G9" t="n">
-        <v>77.19999999999997</v>
+        <v>77.43333333333339</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>77.09999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>77.59999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>77.7</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>77.09999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>17231.7167</v>
+        <v>3606</v>
       </c>
       <c r="G10" t="n">
-        <v>77.49999999999997</v>
+        <v>77.40833333333339</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>77.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D11" t="n">
         <v>77.7</v>
       </c>
       <c r="E11" t="n">
-        <v>77.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>700.4153</v>
+        <v>17231.7167</v>
       </c>
       <c r="G11" t="n">
-        <v>77.64999999999996</v>
+        <v>77.39000000000007</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>77.3</v>
+        <v>77.7</v>
       </c>
       <c r="C12" t="n">
-        <v>77.3</v>
+        <v>77.7</v>
       </c>
       <c r="D12" t="n">
-        <v>77.3</v>
+        <v>77.7</v>
       </c>
       <c r="E12" t="n">
-        <v>77.3</v>
+        <v>77.7</v>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>700.4153</v>
       </c>
       <c r="G12" t="n">
-        <v>77.49999999999996</v>
+        <v>77.37333333333341</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>77.59999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="C13" t="n">
-        <v>77.59999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="D13" t="n">
-        <v>77.59999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="E13" t="n">
-        <v>77.59999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="F13" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>77.44999999999996</v>
+        <v>77.34500000000007</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>77.59999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>1185.5032</v>
+        <v>2000</v>
       </c>
       <c r="G14" t="n">
-        <v>77.59999999999997</v>
+        <v>77.32000000000008</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>77.59999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>7022.8</v>
+        <v>1185.5032</v>
       </c>
       <c r="G15" t="n">
-        <v>77.59999999999997</v>
+        <v>77.29166666666674</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>5000</v>
+        <v>7022.8</v>
       </c>
       <c r="G16" t="n">
-        <v>77.64999999999996</v>
+        <v>77.26166666666676</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>78</v>
+        <v>77.7</v>
       </c>
       <c r="C17" t="n">
-        <v>78</v>
+        <v>77.7</v>
       </c>
       <c r="D17" t="n">
-        <v>78</v>
+        <v>77.7</v>
       </c>
       <c r="E17" t="n">
-        <v>78</v>
+        <v>77.7</v>
       </c>
       <c r="F17" t="n">
-        <v>693</v>
+        <v>5000</v>
       </c>
       <c r="G17" t="n">
-        <v>77.84999999999997</v>
+        <v>77.23500000000008</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>78</v>
       </c>
       <c r="C18" t="n">
-        <v>78.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="D18" t="n">
-        <v>78.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="E18" t="n">
         <v>78</v>
       </c>
       <c r="F18" t="n">
-        <v>1156</v>
+        <v>693</v>
       </c>
       <c r="G18" t="n">
-        <v>78.04999999999995</v>
+        <v>77.21333333333341</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>78.2</v>
+        <v>78</v>
       </c>
       <c r="C19" t="n">
-        <v>78.7</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>78.7</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>78.2</v>
+        <v>78</v>
       </c>
       <c r="F19" t="n">
-        <v>99</v>
+        <v>1156</v>
       </c>
       <c r="G19" t="n">
-        <v>78.39999999999995</v>
+        <v>77.19333333333341</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>78.7</v>
+        <v>78.2</v>
       </c>
       <c r="C20" t="n">
         <v>78.7</v>
@@ -1072,13 +1072,13 @@
         <v>78.7</v>
       </c>
       <c r="E20" t="n">
-        <v>78.7</v>
+        <v>78.2</v>
       </c>
       <c r="F20" t="n">
-        <v>7191.0799</v>
+        <v>99</v>
       </c>
       <c r="G20" t="n">
-        <v>78.69999999999995</v>
+        <v>77.18333333333341</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>78.7</v>
       </c>
       <c r="F21" t="n">
-        <v>1542.4029</v>
+        <v>7191.0799</v>
       </c>
       <c r="G21" t="n">
-        <v>78.69999999999996</v>
+        <v>77.19166666666675</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>78.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="C22" t="n">
-        <v>78.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="D22" t="n">
-        <v>78.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="E22" t="n">
-        <v>78.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="F22" t="n">
-        <v>114.6207</v>
+        <v>1542.4029</v>
       </c>
       <c r="G22" t="n">
-        <v>78.64999999999995</v>
+        <v>77.21666666666674</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>78.59999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>78.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="D23" t="n">
         <v>78.59999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>78.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>7428.6781</v>
+        <v>114.6207</v>
       </c>
       <c r="G23" t="n">
-        <v>78.54999999999995</v>
+        <v>77.24000000000008</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>78.59999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="D24" t="n">
         <v>78.59999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="F24" t="n">
-        <v>1391</v>
+        <v>7428.6781</v>
       </c>
       <c r="G24" t="n">
-        <v>78.54999999999995</v>
+        <v>77.26666666666675</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>78.59999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>78.8</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>78.8</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="E25" t="n">
         <v>78.59999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>3733.1798</v>
+        <v>1391</v>
       </c>
       <c r="G25" t="n">
-        <v>78.69999999999996</v>
+        <v>77.28666666666678</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>78.40000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="D26" t="n">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="E26" t="n">
-        <v>78.40000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>5046.7211</v>
+        <v>3733.1798</v>
       </c>
       <c r="G26" t="n">
-        <v>78.74999999999996</v>
+        <v>77.31166666666677</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>78.7</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>78.7</v>
@@ -1317,13 +1317,13 @@
         <v>78.7</v>
       </c>
       <c r="E27" t="n">
-        <v>78.7</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>4050.3048</v>
+        <v>5046.7211</v>
       </c>
       <c r="G27" t="n">
-        <v>78.69999999999996</v>
+        <v>77.33166666666676</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="C28" t="n">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="D28" t="n">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="E28" t="n">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="F28" t="n">
-        <v>18986.7275</v>
+        <v>4050.3048</v>
       </c>
       <c r="G28" t="n">
-        <v>78.74999999999997</v>
+        <v>77.34833333333343</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>78.8</v>
       </c>
       <c r="F29" t="n">
-        <v>397.3949</v>
+        <v>18986.7275</v>
       </c>
       <c r="G29" t="n">
-        <v>78.79999999999998</v>
+        <v>77.3700000000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>78.8</v>
       </c>
       <c r="F30" t="n">
-        <v>634.5177664974619</v>
+        <v>397.3949</v>
       </c>
       <c r="G30" t="n">
-        <v>78.79999999999998</v>
+        <v>77.38666666666677</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>78.8</v>
       </c>
       <c r="F31" t="n">
-        <v>4846.268733502538</v>
+        <v>634.5177664974619</v>
       </c>
       <c r="G31" t="n">
-        <v>78.79999999999998</v>
+        <v>77.40333333333344</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>79</v>
+        <v>78.8</v>
       </c>
       <c r="C32" t="n">
-        <v>79</v>
+        <v>78.8</v>
       </c>
       <c r="D32" t="n">
-        <v>79</v>
+        <v>78.8</v>
       </c>
       <c r="E32" t="n">
-        <v>79</v>
+        <v>78.8</v>
       </c>
       <c r="F32" t="n">
-        <v>114.0009</v>
+        <v>4846.268733502538</v>
       </c>
       <c r="G32" t="n">
-        <v>78.89999999999998</v>
+        <v>77.42833333333344</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>79</v>
       </c>
       <c r="F33" t="n">
-        <v>300</v>
+        <v>114.0009</v>
       </c>
       <c r="G33" t="n">
-        <v>78.99999999999997</v>
+        <v>77.46000000000009</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>78.5</v>
+        <v>79</v>
       </c>
       <c r="C34" t="n">
-        <v>78.5</v>
+        <v>79</v>
       </c>
       <c r="D34" t="n">
-        <v>78.5</v>
+        <v>79</v>
       </c>
       <c r="E34" t="n">
-        <v>78.5</v>
+        <v>79</v>
       </c>
       <c r="F34" t="n">
-        <v>4846.2688</v>
+        <v>300</v>
       </c>
       <c r="G34" t="n">
-        <v>78.74999999999997</v>
+        <v>77.48833333333343</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>79</v>
+        <v>78.5</v>
       </c>
       <c r="C35" t="n">
-        <v>79</v>
+        <v>78.5</v>
       </c>
       <c r="D35" t="n">
-        <v>79</v>
+        <v>78.5</v>
       </c>
       <c r="E35" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="F35" t="n">
-        <v>78817.4026</v>
+        <v>4846.2688</v>
       </c>
       <c r="G35" t="n">
-        <v>78.74999999999997</v>
+        <v>77.50333333333342</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1632,13 +1632,13 @@
         <v>79</v>
       </c>
       <c r="E36" t="n">
-        <v>79</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>626.6553</v>
+        <v>78817.4026</v>
       </c>
       <c r="G36" t="n">
-        <v>78.99999999999997</v>
+        <v>77.5300000000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>79</v>
       </c>
       <c r="F37" t="n">
-        <v>47</v>
+        <v>626.6553</v>
       </c>
       <c r="G37" t="n">
-        <v>78.99999999999997</v>
+        <v>77.55833333333342</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1696,19 +1696,19 @@
         <v>79</v>
       </c>
       <c r="C38" t="n">
-        <v>79.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="D38" t="n">
-        <v>79.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="E38" t="n">
         <v>79</v>
       </c>
       <c r="F38" t="n">
-        <v>6368.2733</v>
+        <v>47</v>
       </c>
       <c r="G38" t="n">
-        <v>79.04999999999997</v>
+        <v>77.58166666666675</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>79.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="C39" t="n">
         <v>79.09999999999999</v>
@@ -1737,13 +1737,13 @@
         <v>79.09999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>79.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="F39" t="n">
-        <v>5311.5301</v>
+        <v>6368.2733</v>
       </c>
       <c r="G39" t="n">
-        <v>79.09999999999997</v>
+        <v>77.61166666666675</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>79.2</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>79.2</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>79.2</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>79.2</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>1073.2839</v>
+        <v>5311.5301</v>
       </c>
       <c r="G40" t="n">
-        <v>79.14999999999996</v>
+        <v>77.64166666666675</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>79.09999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="C41" t="n">
-        <v>79.09999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="D41" t="n">
-        <v>79.09999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="E41" t="n">
-        <v>79.09999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="F41" t="n">
-        <v>956.4697</v>
+        <v>1073.2839</v>
       </c>
       <c r="G41" t="n">
-        <v>79.14999999999996</v>
+        <v>77.6750000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>79.09999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>5071.2426</v>
+        <v>956.4697</v>
       </c>
       <c r="G42" t="n">
-        <v>79.09999999999997</v>
+        <v>77.70666666666676</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1877,13 +1877,13 @@
         <v>79.09999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>78.5</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>27736.753</v>
+        <v>5071.2426</v>
       </c>
       <c r="G43" t="n">
-        <v>79.09999999999997</v>
+        <v>77.73833333333344</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>78.90000000000001</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>78.90000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="F44" t="n">
-        <v>19524.5029</v>
+        <v>27736.753</v>
       </c>
       <c r="G44" t="n">
-        <v>79.04999999999997</v>
+        <v>77.77833333333345</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>79.09999999999999</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>79.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="D45" t="n">
-        <v>79.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="E45" t="n">
-        <v>79.09999999999999</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>23733.7626</v>
+        <v>19524.5029</v>
       </c>
       <c r="G45" t="n">
-        <v>79.04999999999997</v>
+        <v>77.81500000000011</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>79.09999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>1522.2077</v>
+        <v>23733.7626</v>
       </c>
       <c r="G46" t="n">
-        <v>79.09999999999997</v>
+        <v>77.85333333333345</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>78.59999999999999</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>78.5</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>78.59999999999999</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>78.5</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>11453.3745</v>
+        <v>1522.2077</v>
       </c>
       <c r="G47" t="n">
-        <v>78.79999999999997</v>
+        <v>77.90000000000012</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>78.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="C48" t="n">
         <v>78.5</v>
       </c>
       <c r="D48" t="n">
-        <v>78.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="E48" t="n">
         <v>78.5</v>
       </c>
       <c r="F48" t="n">
-        <v>1521.4812</v>
+        <v>11453.3745</v>
       </c>
       <c r="G48" t="n">
-        <v>78.49999999999997</v>
+        <v>77.93166666666679</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>78.5</v>
       </c>
       <c r="C49" t="n">
-        <v>79</v>
+        <v>78.5</v>
       </c>
       <c r="D49" t="n">
-        <v>79</v>
+        <v>78.5</v>
       </c>
       <c r="E49" t="n">
         <v>78.5</v>
       </c>
       <c r="F49" t="n">
-        <v>129</v>
+        <v>1521.4812</v>
       </c>
       <c r="G49" t="n">
-        <v>78.74999999999997</v>
+        <v>77.96000000000011</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="C50" t="n">
-        <v>78.59999999999999</v>
+        <v>79</v>
       </c>
       <c r="D50" t="n">
-        <v>78.59999999999999</v>
+        <v>79</v>
       </c>
       <c r="E50" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="F50" t="n">
-        <v>1064.1179</v>
+        <v>129</v>
       </c>
       <c r="G50" t="n">
-        <v>78.79999999999997</v>
+        <v>77.99833333333345</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2151,19 +2151,19 @@
         <v>78.59999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>79</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>79</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="E51" t="n">
         <v>78.59999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>92898.09239999999</v>
+        <v>1064.1179</v>
       </c>
       <c r="G51" t="n">
-        <v>78.79999999999997</v>
+        <v>78.0266666666668</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2186,19 +2186,19 @@
         <v>78.59999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>78.2</v>
+        <v>79</v>
       </c>
       <c r="D52" t="n">
+        <v>79</v>
+      </c>
+      <c r="E52" t="n">
         <v>78.59999999999999</v>
       </c>
-      <c r="E52" t="n">
-        <v>78.2</v>
-      </c>
       <c r="F52" t="n">
-        <v>71286.08809999999</v>
+        <v>92898.09239999999</v>
       </c>
       <c r="G52" t="n">
-        <v>78.59999999999998</v>
+        <v>78.06833333333346</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>78.2</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="C53" t="n">
         <v>78.2</v>
       </c>
       <c r="D53" t="n">
-        <v>78.2</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="E53" t="n">
         <v>78.2</v>
       </c>
       <c r="F53" t="n">
-        <v>16.3926</v>
+        <v>71286.08809999999</v>
       </c>
       <c r="G53" t="n">
-        <v>78.19999999999999</v>
+        <v>78.09000000000013</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>78.09999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="C54" t="n">
-        <v>78.09999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="D54" t="n">
-        <v>78.09999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="E54" t="n">
-        <v>78.09999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="F54" t="n">
-        <v>901.4094</v>
+        <v>16.3926</v>
       </c>
       <c r="G54" t="n">
-        <v>78.14999999999998</v>
+        <v>78.11666666666679</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>634.5177</v>
+        <v>901.4094</v>
       </c>
       <c r="G55" t="n">
-        <v>78.04999999999998</v>
+        <v>78.14000000000013</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>78.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="C56" t="n">
         <v>78</v>
       </c>
       <c r="D56" t="n">
-        <v>78.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="E56" t="n">
         <v>78</v>
       </c>
       <c r="F56" t="n">
-        <v>12848</v>
+        <v>634.5177</v>
       </c>
       <c r="G56" t="n">
-        <v>77.99999999999999</v>
+        <v>78.1616666666668</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="C57" t="n">
         <v>78</v>
       </c>
-      <c r="C57" t="n">
-        <v>77.90000000000001</v>
-      </c>
       <c r="D57" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="E57" t="n">
         <v>78</v>
       </c>
-      <c r="E57" t="n">
-        <v>77.59999999999999</v>
-      </c>
       <c r="F57" t="n">
-        <v>9022.204400000001</v>
+        <v>12848</v>
       </c>
       <c r="G57" t="n">
-        <v>77.94999999999999</v>
+        <v>78.18500000000013</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>77.8</v>
+        <v>78</v>
       </c>
       <c r="C58" t="n">
         <v>77.90000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>77.90000000000001</v>
+        <v>78</v>
       </c>
       <c r="E58" t="n">
-        <v>77.8</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>20000</v>
+        <v>9022.204400000001</v>
       </c>
       <c r="G58" t="n">
-        <v>77.89999999999999</v>
+        <v>78.20500000000013</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>77.5</v>
+        <v>77.8</v>
       </c>
       <c r="C59" t="n">
-        <v>77.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>77.5</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>77.40000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="F59" t="n">
-        <v>118010.3408</v>
+        <v>20000</v>
       </c>
       <c r="G59" t="n">
-        <v>77.64999999999999</v>
+        <v>78.22833333333345</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>77.2</v>
+        <v>77.5</v>
       </c>
       <c r="C60" t="n">
-        <v>77.2</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>77.2</v>
+        <v>77.5</v>
       </c>
       <c r="E60" t="n">
-        <v>77.2</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>103.4152</v>
+        <v>118010.3408</v>
       </c>
       <c r="G60" t="n">
-        <v>77.3</v>
+        <v>78.23833333333344</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>77.2</v>
       </c>
       <c r="F61" t="n">
-        <v>647.6684</v>
+        <v>103.4152</v>
       </c>
       <c r="G61" t="n">
-        <v>77.2</v>
+        <v>78.25500000000011</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="C62" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="D62" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="E62" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="F62" t="n">
-        <v>622.879</v>
+        <v>647.6684</v>
       </c>
       <c r="G62" t="n">
-        <v>77.15000000000001</v>
+        <v>78.26166666666677</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>477.3561</v>
+        <v>622.879</v>
       </c>
       <c r="G63" t="n">
-        <v>77.15000000000001</v>
+        <v>78.26166666666677</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>77.2</v>
       </c>
       <c r="F64" t="n">
-        <v>538.2907</v>
+        <v>477.3561</v>
       </c>
       <c r="G64" t="n">
-        <v>77.2</v>
+        <v>78.27166666666676</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="C65" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="D65" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="E65" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="F65" t="n">
-        <v>291.6637</v>
+        <v>538.2907</v>
       </c>
       <c r="G65" t="n">
-        <v>77.15000000000001</v>
+        <v>78.27333333333341</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>77.09999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>693.0903</v>
+        <v>291.6637</v>
       </c>
       <c r="G66" t="n">
-        <v>77.09999999999999</v>
+        <v>78.27166666666676</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2711,19 +2711,19 @@
         <v>77.09999999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>76.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D67" t="n">
         <v>77.09999999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>76.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>2684.2364</v>
+        <v>693.0903</v>
       </c>
       <c r="G67" t="n">
-        <v>76.8</v>
+        <v>78.27500000000011</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>77.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>77.3</v>
+        <v>76.5</v>
       </c>
       <c r="D68" t="n">
-        <v>77.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>77.3</v>
+        <v>76.5</v>
       </c>
       <c r="F68" t="n">
-        <v>4594</v>
+        <v>2684.2364</v>
       </c>
       <c r="G68" t="n">
-        <v>76.89999999999999</v>
+        <v>78.26833333333344</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,38 +2778,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>77</v>
+        <v>77.3</v>
       </c>
       <c r="C69" t="n">
-        <v>76.90000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="D69" t="n">
-        <v>77</v>
+        <v>77.3</v>
       </c>
       <c r="E69" t="n">
-        <v>76.90000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="F69" t="n">
-        <v>11568.8429</v>
+        <v>4594</v>
       </c>
       <c r="G69" t="n">
-        <v>77.09999999999999</v>
+        <v>78.27333333333345</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>77.3</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2819,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>76.8</v>
+        <v>77</v>
       </c>
       <c r="C70" t="n">
-        <v>76.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>76.8</v>
+        <v>77</v>
       </c>
       <c r="E70" t="n">
-        <v>76.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>31.6215</v>
+        <v>11568.8429</v>
       </c>
       <c r="G70" t="n">
-        <v>76.84999999999999</v>
+        <v>78.26500000000011</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2844,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2858,38 +2848,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>77.09999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="C71" t="n">
-        <v>77.09999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="D71" t="n">
-        <v>77.09999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="E71" t="n">
-        <v>77.09999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="F71" t="n">
-        <v>147</v>
+        <v>31.6215</v>
       </c>
       <c r="G71" t="n">
-        <v>76.94999999999999</v>
+        <v>78.25166666666678</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>76.8</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2899,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>122.1218</v>
+        <v>147</v>
       </c>
       <c r="G72" t="n">
-        <v>77.04999999999998</v>
+        <v>78.24166666666679</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2924,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2950,10 +2930,10 @@
         <v>77</v>
       </c>
       <c r="F73" t="n">
-        <v>20055.3705</v>
+        <v>122.1218</v>
       </c>
       <c r="G73" t="n">
-        <v>76.99999999999999</v>
+        <v>78.23666666666678</v>
       </c>
       <c r="H73" t="n">
         <v>1</v>
@@ -2962,14 +2942,12 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>77</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>77.09999999999999</v>
+      </c>
+      <c r="K73" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2979,36 +2957,36 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>77.2</v>
+        <v>77</v>
       </c>
       <c r="C74" t="n">
-        <v>77.3</v>
+        <v>77</v>
       </c>
       <c r="D74" t="n">
-        <v>77.3</v>
+        <v>77</v>
       </c>
       <c r="E74" t="n">
-        <v>77.2</v>
+        <v>77</v>
       </c>
       <c r="F74" t="n">
-        <v>6443.7</v>
+        <v>20055.3705</v>
       </c>
       <c r="G74" t="n">
-        <v>77.14999999999998</v>
+        <v>78.22666666666677</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>77</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>77.09999999999999</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M74" t="n">
@@ -3020,36 +2998,38 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="C75" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="D75" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="E75" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="F75" t="n">
+        <v>6443.7</v>
+      </c>
+      <c r="G75" t="n">
+        <v>78.22166666666678</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>77</v>
+      </c>
+      <c r="K75" t="n">
         <v>77.09999999999999</v>
       </c>
-      <c r="C75" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="D75" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="E75" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="F75" t="n">
-        <v>147.2607</v>
-      </c>
-      <c r="G75" t="n">
-        <v>77.19999999999997</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M75" t="n">
@@ -3061,38 +3041,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>77.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>77.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>77.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>77.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>205</v>
+        <v>147.2607</v>
       </c>
       <c r="G76" t="n">
-        <v>77.24999999999997</v>
+        <v>78.21333333333344</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>77.09999999999999</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3102,38 +3076,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>77.59999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>77.59999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>77.59999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>77.59999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F77" t="n">
         <v>205</v>
       </c>
       <c r="G77" t="n">
-        <v>77.49999999999997</v>
+        <v>78.20833333333344</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>77.40000000000001</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3143,22 +3111,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>76.8</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>76.8</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>3032.4234</v>
+        <v>205</v>
       </c>
       <c r="G78" t="n">
-        <v>77.19999999999997</v>
+        <v>78.20166666666678</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3168,11 +3136,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3182,22 +3146,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>76.59999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>76.59999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="D79" t="n">
-        <v>76.59999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>76.59999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="F79" t="n">
-        <v>649.3507</v>
+        <v>3032.4234</v>
       </c>
       <c r="G79" t="n">
-        <v>76.69999999999997</v>
+        <v>78.18000000000011</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3207,11 +3171,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3221,22 +3181,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F80" t="n">
-        <v>27704.2789</v>
+        <v>649.3507</v>
       </c>
       <c r="G80" t="n">
-        <v>76.54999999999998</v>
+        <v>78.14500000000012</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3246,11 +3206,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3260,22 +3216,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="C81" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="D81" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="E81" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="F81" t="n">
-        <v>20000</v>
+        <v>27704.2789</v>
       </c>
       <c r="G81" t="n">
-        <v>76.44999999999999</v>
+        <v>78.10833333333345</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3285,11 +3241,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3311,10 +3263,10 @@
         <v>76.40000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>720</v>
+        <v>20000</v>
       </c>
       <c r="G82" t="n">
-        <v>76.39999999999999</v>
+        <v>78.07000000000012</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3324,11 +3276,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3286,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>76.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>76.7</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>76.7</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>76.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>37109.8928</v>
+        <v>720</v>
       </c>
       <c r="G83" t="n">
-        <v>76.55</v>
+        <v>78.03333333333345</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3363,11 +3311,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3377,22 +3321,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>76.90000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>76.90000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="D84" t="n">
-        <v>76.90000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="E84" t="n">
-        <v>76.90000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="F84" t="n">
-        <v>591.306</v>
+        <v>37109.8928</v>
       </c>
       <c r="G84" t="n">
-        <v>76.8</v>
+        <v>78.00333333333343</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3402,11 +3346,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3416,22 +3356,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>76.59999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>76.40000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>76.59999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>76.40000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>18077.0832</v>
+        <v>591.306</v>
       </c>
       <c r="G85" t="n">
-        <v>76.65000000000001</v>
+        <v>77.97500000000009</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3441,11 +3381,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3455,22 +3391,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="C86" t="n">
         <v>76.40000000000001</v>
       </c>
-      <c r="C86" t="n">
-        <v>76.2</v>
-      </c>
       <c r="D86" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="E86" t="n">
         <v>76.40000000000001</v>
       </c>
-      <c r="E86" t="n">
-        <v>76.2</v>
-      </c>
       <c r="F86" t="n">
-        <v>22078.6627</v>
+        <v>18077.0832</v>
       </c>
       <c r="G86" t="n">
-        <v>76.3</v>
+        <v>77.93500000000009</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3480,11 +3416,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3494,22 +3426,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>76.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>76.59999999999999</v>
+        <v>76.2</v>
       </c>
       <c r="D87" t="n">
-        <v>76.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>76.59999999999999</v>
+        <v>76.2</v>
       </c>
       <c r="F87" t="n">
-        <v>2391.8543</v>
+        <v>22078.6627</v>
       </c>
       <c r="G87" t="n">
-        <v>76.39999999999999</v>
+        <v>77.89333333333342</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3519,11 +3451,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3545,10 +3473,10 @@
         <v>76.59999999999999</v>
       </c>
       <c r="F88" t="n">
-        <v>26</v>
+        <v>2391.8543</v>
       </c>
       <c r="G88" t="n">
-        <v>76.59999999999999</v>
+        <v>77.85833333333342</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3558,11 +3486,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3572,22 +3496,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>76.40000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>77</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>77</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>76.40000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>12384.3118</v>
+        <v>26</v>
       </c>
       <c r="G89" t="n">
-        <v>76.8</v>
+        <v>77.82166666666676</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3597,11 +3521,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3611,22 +3531,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>77.09999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>76.8</v>
+        <v>77</v>
       </c>
       <c r="D90" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="E90" t="n">
-        <v>76.8</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>5818.9895</v>
+        <v>12384.3118</v>
       </c>
       <c r="G90" t="n">
-        <v>76.89999999999999</v>
+        <v>77.79166666666676</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3636,11 +3556,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3650,22 +3566,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>76.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>76.59999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="D91" t="n">
-        <v>76.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E91" t="n">
-        <v>76.59999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="F91" t="n">
-        <v>221.1517</v>
+        <v>5818.9895</v>
       </c>
       <c r="G91" t="n">
-        <v>76.69999999999999</v>
+        <v>77.75833333333343</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3675,11 +3591,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3689,22 +3601,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>76.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>76.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>76.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E92" t="n">
-        <v>76.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F92" t="n">
-        <v>255.1126</v>
+        <v>221.1517</v>
       </c>
       <c r="G92" t="n">
-        <v>76.64999999999998</v>
+        <v>77.72166666666676</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,11 +3626,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3728,22 +3636,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>76.90000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="C93" t="n">
-        <v>76.90000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="D93" t="n">
-        <v>76.90000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="E93" t="n">
-        <v>76.90000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="F93" t="n">
-        <v>120</v>
+        <v>255.1126</v>
       </c>
       <c r="G93" t="n">
-        <v>76.79999999999998</v>
+        <v>77.68333333333342</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3753,11 +3661,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3779,10 +3683,10 @@
         <v>76.90000000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>7593.2394</v>
+        <v>120</v>
       </c>
       <c r="G94" t="n">
-        <v>76.89999999999998</v>
+        <v>77.64833333333341</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3792,11 +3696,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3806,22 +3706,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>77.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>77.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>77.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>77.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>123.1352</v>
+        <v>7593.2394</v>
       </c>
       <c r="G95" t="n">
-        <v>77.04999999999997</v>
+        <v>77.62166666666674</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3831,11 +3731,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3845,22 +3741,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>77.5</v>
+        <v>77.2</v>
       </c>
       <c r="C96" t="n">
-        <v>77.59999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="D96" t="n">
-        <v>78.2</v>
+        <v>77.2</v>
       </c>
       <c r="E96" t="n">
-        <v>77.5</v>
+        <v>77.2</v>
       </c>
       <c r="F96" t="n">
-        <v>12785.2297</v>
+        <v>123.1352</v>
       </c>
       <c r="G96" t="n">
-        <v>77.39999999999996</v>
+        <v>77.59166666666674</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3870,11 +3766,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3884,22 +3776,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>78.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="C97" t="n">
-        <v>78.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>78.40000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="E97" t="n">
-        <v>78.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="F97" t="n">
-        <v>730</v>
+        <v>12785.2297</v>
       </c>
       <c r="G97" t="n">
-        <v>77.99999999999997</v>
+        <v>77.56833333333341</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3909,11 +3801,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3923,22 +3811,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>78.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>78.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>29309.1615</v>
+        <v>730</v>
       </c>
       <c r="G98" t="n">
-        <v>78.49999999999997</v>
+        <v>77.55833333333341</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3948,11 +3836,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3962,10 +3846,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="C99" t="n">
         <v>78.59999999999999</v>
-      </c>
-      <c r="C99" t="n">
-        <v>78.5</v>
       </c>
       <c r="D99" t="n">
         <v>78.59999999999999</v>
@@ -3974,10 +3858,10 @@
         <v>78.5</v>
       </c>
       <c r="F99" t="n">
-        <v>9636.0641</v>
+        <v>29309.1615</v>
       </c>
       <c r="G99" t="n">
-        <v>78.54999999999997</v>
+        <v>77.55000000000008</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3987,11 +3871,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4004,19 +3884,19 @@
         <v>78.59999999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="D100" t="n">
         <v>78.59999999999999</v>
       </c>
       <c r="E100" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="F100" t="n">
-        <v>3210.671</v>
+        <v>9636.0641</v>
       </c>
       <c r="G100" t="n">
-        <v>78.54999999999997</v>
+        <v>77.54000000000006</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4026,11 +3906,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4040,7 +3916,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>78.40000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="C101" t="n">
         <v>78.59999999999999</v>
@@ -4049,13 +3925,13 @@
         <v>78.59999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>78.40000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>4851.2615</v>
+        <v>3210.671</v>
       </c>
       <c r="G101" t="n">
-        <v>78.59999999999997</v>
+        <v>77.53000000000007</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4065,11 +3941,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4079,7 +3951,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C102" t="n">
         <v>78.59999999999999</v>
@@ -4088,13 +3960,13 @@
         <v>78.59999999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>4302.3</v>
+        <v>4851.2615</v>
       </c>
       <c r="G102" t="n">
-        <v>78.59999999999997</v>
+        <v>77.52166666666675</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4104,11 +3976,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4118,22 +3986,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>77.8</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>77.8</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>77.8</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>77.8</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>39.5447</v>
+        <v>4302.3</v>
       </c>
       <c r="G103" t="n">
-        <v>78.19999999999997</v>
+        <v>77.51333333333341</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4143,11 +4011,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4157,22 +4021,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>78.09999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="C104" t="n">
-        <v>78.59999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="D104" t="n">
-        <v>78.59999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="E104" t="n">
-        <v>78.09999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="F104" t="n">
-        <v>362.6845</v>
+        <v>39.5447</v>
       </c>
       <c r="G104" t="n">
-        <v>78.19999999999997</v>
+        <v>77.49166666666675</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4182,11 +4046,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4196,22 +4056,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>78</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>78</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="E105" t="n">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="F105" t="n">
-        <v>3884.3733</v>
+        <v>362.6845</v>
       </c>
       <c r="G105" t="n">
-        <v>78.29999999999998</v>
+        <v>77.48500000000008</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4221,11 +4081,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4235,22 +4091,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>78.40000000000001</v>
+        <v>78</v>
       </c>
       <c r="C106" t="n">
-        <v>78.40000000000001</v>
+        <v>78</v>
       </c>
       <c r="D106" t="n">
-        <v>78.40000000000001</v>
+        <v>78</v>
       </c>
       <c r="E106" t="n">
-        <v>78.40000000000001</v>
+        <v>78</v>
       </c>
       <c r="F106" t="n">
-        <v>120</v>
+        <v>3884.3733</v>
       </c>
       <c r="G106" t="n">
-        <v>78.19999999999999</v>
+        <v>77.46666666666674</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4260,11 +4116,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4274,22 +4126,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>78.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>78.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>78.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>78.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>63.5385</v>
+        <v>120</v>
       </c>
       <c r="G107" t="n">
-        <v>78.34999999999999</v>
+        <v>77.45500000000007</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4299,11 +4151,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4325,10 +4173,10 @@
         <v>78.3</v>
       </c>
       <c r="F108" t="n">
-        <v>550.4669</v>
+        <v>63.5385</v>
       </c>
       <c r="G108" t="n">
-        <v>78.3</v>
+        <v>77.45166666666674</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4338,11 +4186,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4352,22 +4196,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>77</v>
+        <v>78.3</v>
       </c>
       <c r="C109" t="n">
-        <v>77.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="D109" t="n">
-        <v>77.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="E109" t="n">
-        <v>76.90000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="F109" t="n">
-        <v>29800.1615</v>
+        <v>550.4669</v>
       </c>
       <c r="G109" t="n">
-        <v>77.84999999999999</v>
+        <v>77.44833333333341</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4377,11 +4221,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4394,19 +4234,19 @@
         <v>77</v>
       </c>
       <c r="C110" t="n">
-        <v>77</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>77</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>1284.6735</v>
+        <v>29800.1615</v>
       </c>
       <c r="G110" t="n">
-        <v>77.19999999999999</v>
+        <v>77.42166666666672</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4416,11 +4256,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4430,22 +4266,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="C111" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="D111" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="E111" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="F111" t="n">
-        <v>11562.0616</v>
+        <v>1284.6735</v>
       </c>
       <c r="G111" t="n">
-        <v>76.84999999999998</v>
+        <v>77.39500000000005</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4455,11 +4291,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4472,19 +4304,19 @@
         <v>76.90000000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>76.90000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="D112" t="n">
         <v>76.90000000000001</v>
       </c>
       <c r="E112" t="n">
-        <v>76.90000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="F112" t="n">
-        <v>180.3518</v>
+        <v>11562.0616</v>
       </c>
       <c r="G112" t="n">
-        <v>76.79999999999998</v>
+        <v>77.35666666666673</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4494,11 +4326,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4508,22 +4336,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>77.59999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>77.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>77.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>77.59999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>7137.6956</v>
+        <v>180.3518</v>
       </c>
       <c r="G113" t="n">
-        <v>77.29999999999998</v>
+        <v>77.33500000000005</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4533,11 +4361,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4547,22 +4371,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>78</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>78</v>
+        <v>77.7</v>
       </c>
       <c r="D114" t="n">
-        <v>78</v>
+        <v>77.7</v>
       </c>
       <c r="E114" t="n">
-        <v>78</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>634.1961</v>
+        <v>7137.6956</v>
       </c>
       <c r="G114" t="n">
-        <v>77.84999999999998</v>
+        <v>77.32666666666672</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4572,11 +4396,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4598,10 +4418,10 @@
         <v>78</v>
       </c>
       <c r="F115" t="n">
-        <v>1995</v>
+        <v>634.1961</v>
       </c>
       <c r="G115" t="n">
-        <v>77.99999999999997</v>
+        <v>77.32500000000005</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4611,11 +4431,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4625,22 +4441,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>78.2</v>
+        <v>78</v>
       </c>
       <c r="C116" t="n">
-        <v>78.2</v>
+        <v>78</v>
       </c>
       <c r="D116" t="n">
-        <v>78.2</v>
+        <v>78</v>
       </c>
       <c r="E116" t="n">
-        <v>78.2</v>
+        <v>78</v>
       </c>
       <c r="F116" t="n">
-        <v>58</v>
+        <v>1995</v>
       </c>
       <c r="G116" t="n">
-        <v>78.09999999999997</v>
+        <v>77.32500000000005</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4650,11 +4466,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4676,10 +4488,10 @@
         <v>78.2</v>
       </c>
       <c r="F117" t="n">
-        <v>0.3801</v>
+        <v>58</v>
       </c>
       <c r="G117" t="n">
-        <v>78.19999999999996</v>
+        <v>77.32833333333338</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4689,11 +4501,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4703,22 +4511,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>78.5</v>
+        <v>78.2</v>
       </c>
       <c r="C118" t="n">
-        <v>78.59999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="D118" t="n">
-        <v>78.59999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="E118" t="n">
-        <v>78.5</v>
+        <v>78.2</v>
       </c>
       <c r="F118" t="n">
-        <v>23635.9566</v>
+        <v>0.3801</v>
       </c>
       <c r="G118" t="n">
-        <v>78.39999999999995</v>
+        <v>77.33333333333339</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4728,11 +4536,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4742,7 +4546,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="C119" t="n">
         <v>78.59999999999999</v>
@@ -4751,13 +4555,13 @@
         <v>78.59999999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="F119" t="n">
-        <v>17450.5628</v>
+        <v>23635.9566</v>
       </c>
       <c r="G119" t="n">
-        <v>78.59999999999994</v>
+        <v>77.34500000000006</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4767,11 +4571,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4781,22 +4581,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>78.90000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>79</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>79</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="E120" t="n">
-        <v>78.90000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="F120" t="n">
-        <v>6290.9689</v>
+        <v>17450.5628</v>
       </c>
       <c r="G120" t="n">
-        <v>78.79999999999994</v>
+        <v>77.36500000000007</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4806,11 +4606,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4820,22 +4616,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="C121" t="n">
         <v>79</v>
       </c>
-      <c r="C121" t="n">
-        <v>79.09999999999999</v>
-      </c>
       <c r="D121" t="n">
-        <v>79.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="E121" t="n">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F121" t="n">
-        <v>39374.5962</v>
+        <v>6290.9689</v>
       </c>
       <c r="G121" t="n">
-        <v>79.04999999999994</v>
+        <v>77.39500000000007</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4845,11 +4641,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4859,22 +4651,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>79.2</v>
+        <v>79</v>
       </c>
       <c r="C122" t="n">
-        <v>79.3</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>79.3</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>79.2</v>
+        <v>79</v>
       </c>
       <c r="F122" t="n">
-        <v>2856.7368</v>
+        <v>39374.5962</v>
       </c>
       <c r="G122" t="n">
-        <v>79.19999999999993</v>
+        <v>77.42666666666675</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4884,11 +4676,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4898,22 +4686,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>79.40000000000001</v>
+        <v>79.2</v>
       </c>
       <c r="C123" t="n">
-        <v>79.59999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="D123" t="n">
-        <v>79.59999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="E123" t="n">
-        <v>79.40000000000001</v>
+        <v>79.2</v>
       </c>
       <c r="F123" t="n">
-        <v>2767.135</v>
+        <v>2856.7368</v>
       </c>
       <c r="G123" t="n">
-        <v>79.44999999999993</v>
+        <v>77.46333333333341</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4923,11 +4711,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4937,22 +4721,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="C124" t="n">
         <v>79.59999999999999</v>
       </c>
-      <c r="C124" t="n">
-        <v>79.7</v>
-      </c>
       <c r="D124" t="n">
-        <v>79.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>79.59999999999999</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="F124" t="n">
-        <v>42339.0909</v>
+        <v>2767.135</v>
       </c>
       <c r="G124" t="n">
-        <v>79.64999999999992</v>
+        <v>77.50333333333342</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4962,11 +4746,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4976,65 +4756,63 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>79.8</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="C125" t="n">
         <v>79.7</v>
       </c>
       <c r="D125" t="n">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="E125" t="n">
-        <v>79.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="F125" t="n">
-        <v>9221.188399999999</v>
+        <v>42339.0909</v>
       </c>
       <c r="G125" t="n">
-        <v>79.69999999999992</v>
+        <v>77.54500000000009</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="C126" t="n">
         <v>79.7</v>
       </c>
       <c r="D126" t="n">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="E126" t="n">
         <v>79.7</v>
       </c>
       <c r="F126" t="n">
-        <v>3781.0454</v>
+        <v>9221.188399999999</v>
       </c>
       <c r="G126" t="n">
-        <v>79.69999999999993</v>
+        <v>77.58833333333341</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5060,16 +4838,16 @@
         <v>79.7</v>
       </c>
       <c r="F127" t="n">
-        <v>2199.7163</v>
+        <v>3781.0454</v>
       </c>
       <c r="G127" t="n">
-        <v>79.69999999999993</v>
+        <v>77.63166666666673</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -5083,28 +4861,28 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>79.2</v>
+        <v>79.7</v>
       </c>
       <c r="C128" t="n">
-        <v>79.2</v>
+        <v>79.7</v>
       </c>
       <c r="D128" t="n">
-        <v>79.2</v>
+        <v>79.7</v>
       </c>
       <c r="E128" t="n">
-        <v>79.2</v>
+        <v>79.7</v>
       </c>
       <c r="F128" t="n">
-        <v>115.196</v>
+        <v>2199.7163</v>
       </c>
       <c r="G128" t="n">
-        <v>79.44999999999993</v>
+        <v>77.68500000000007</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -5130,10 +4908,10 @@
         <v>79.2</v>
       </c>
       <c r="F129" t="n">
-        <v>280.8253</v>
+        <v>115.196</v>
       </c>
       <c r="G129" t="n">
-        <v>79.19999999999993</v>
+        <v>77.71666666666673</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5153,28 +4931,28 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>79.5</v>
+        <v>79.2</v>
       </c>
       <c r="C130" t="n">
-        <v>79.7</v>
+        <v>79.2</v>
       </c>
       <c r="D130" t="n">
-        <v>79.7</v>
+        <v>79.2</v>
       </c>
       <c r="E130" t="n">
-        <v>79.5</v>
+        <v>79.2</v>
       </c>
       <c r="F130" t="n">
-        <v>14426.6251</v>
+        <v>280.8253</v>
       </c>
       <c r="G130" t="n">
-        <v>79.44999999999993</v>
+        <v>77.75500000000007</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5188,22 +4966,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>79.8</v>
+        <v>79.5</v>
       </c>
       <c r="C131" t="n">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="D131" t="n">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="E131" t="n">
-        <v>79.8</v>
+        <v>79.5</v>
       </c>
       <c r="F131" t="n">
-        <v>13736</v>
+        <v>14426.6251</v>
       </c>
       <c r="G131" t="n">
-        <v>79.74999999999994</v>
+        <v>77.80333333333338</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5235,10 +5013,10 @@
         <v>79.8</v>
       </c>
       <c r="F132" t="n">
-        <v>13231.7704</v>
+        <v>13736</v>
       </c>
       <c r="G132" t="n">
-        <v>79.79999999999995</v>
+        <v>77.84833333333339</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5270,10 +5048,10 @@
         <v>79.8</v>
       </c>
       <c r="F133" t="n">
-        <v>2394.3316</v>
+        <v>13231.7704</v>
       </c>
       <c r="G133" t="n">
-        <v>79.79999999999995</v>
+        <v>77.89500000000005</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5293,22 +5071,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>79.59999999999999</v>
+        <v>79.8</v>
       </c>
       <c r="C134" t="n">
-        <v>79.5</v>
+        <v>79.8</v>
       </c>
       <c r="D134" t="n">
-        <v>79.59999999999999</v>
+        <v>79.8</v>
       </c>
       <c r="E134" t="n">
-        <v>79.5</v>
+        <v>79.8</v>
       </c>
       <c r="F134" t="n">
-        <v>1634.2425</v>
+        <v>2394.3316</v>
       </c>
       <c r="G134" t="n">
-        <v>79.64999999999995</v>
+        <v>77.94166666666673</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5328,22 +5106,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>79.40000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="C135" t="n">
-        <v>79.3</v>
+        <v>79.5</v>
       </c>
       <c r="D135" t="n">
-        <v>79.40000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="E135" t="n">
-        <v>79.3</v>
+        <v>79.5</v>
       </c>
       <c r="F135" t="n">
-        <v>35815.5527</v>
+        <v>1634.2425</v>
       </c>
       <c r="G135" t="n">
-        <v>79.39999999999995</v>
+        <v>77.9783333333334</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5363,7 +5141,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="C136" t="n">
         <v>79.3</v>
@@ -5375,10 +5153,10 @@
         <v>79.3</v>
       </c>
       <c r="F136" t="n">
-        <v>30060.3572</v>
+        <v>35815.5527</v>
       </c>
       <c r="G136" t="n">
-        <v>79.29999999999995</v>
+        <v>78.01500000000006</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5398,22 +5176,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>79.7</v>
+        <v>79.3</v>
       </c>
       <c r="C137" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="D137" t="n">
-        <v>79.7</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="E137" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="F137" t="n">
-        <v>4266.0901</v>
+        <v>30060.3572</v>
       </c>
       <c r="G137" t="n">
-        <v>79.24999999999994</v>
+        <v>78.04666666666672</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5433,22 +5211,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>78.8</v>
+        <v>79.7</v>
       </c>
       <c r="C138" t="n">
-        <v>78.90000000000001</v>
+        <v>79.2</v>
       </c>
       <c r="D138" t="n">
-        <v>78.90000000000001</v>
+        <v>79.7</v>
       </c>
       <c r="E138" t="n">
-        <v>78.8</v>
+        <v>79.2</v>
       </c>
       <c r="F138" t="n">
-        <v>17540.3485</v>
+        <v>4266.0901</v>
       </c>
       <c r="G138" t="n">
-        <v>79.04999999999995</v>
+        <v>78.07333333333339</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5468,22 +5246,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>78.09999999999999</v>
+        <v>78.8</v>
       </c>
       <c r="C139" t="n">
-        <v>78.09999999999999</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>78.09999999999999</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="E139" t="n">
-        <v>78.09999999999999</v>
+        <v>78.8</v>
       </c>
       <c r="F139" t="n">
-        <v>391.0833</v>
+        <v>17540.3485</v>
       </c>
       <c r="G139" t="n">
-        <v>78.49999999999994</v>
+        <v>78.10833333333338</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5503,22 +5281,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>78.2</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C140" t="n">
-        <v>78.40000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>78.8</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E140" t="n">
-        <v>78.2</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="F140" t="n">
-        <v>2582.9278</v>
+        <v>391.0833</v>
       </c>
       <c r="G140" t="n">
-        <v>78.24999999999994</v>
+        <v>78.13333333333338</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5538,22 +5316,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>78.7</v>
+        <v>78.2</v>
       </c>
       <c r="C141" t="n">
-        <v>78.7</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="E141" t="n">
-        <v>78.7</v>
+        <v>78.2</v>
       </c>
       <c r="F141" t="n">
-        <v>7</v>
+        <v>2582.9278</v>
       </c>
       <c r="G141" t="n">
-        <v>78.54999999999994</v>
+        <v>78.16500000000003</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5573,22 +5351,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>78.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="C142" t="n">
-        <v>79.5</v>
+        <v>78.7</v>
       </c>
       <c r="D142" t="n">
-        <v>79.5</v>
+        <v>78.7</v>
       </c>
       <c r="E142" t="n">
-        <v>78.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="F142" t="n">
-        <v>1208.8481</v>
+        <v>7</v>
       </c>
       <c r="G142" t="n">
-        <v>79.09999999999994</v>
+        <v>78.20333333333338</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5608,22 +5386,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>79.8</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="C143" t="n">
-        <v>79.8</v>
+        <v>79.5</v>
       </c>
       <c r="D143" t="n">
-        <v>79.8</v>
+        <v>79.5</v>
       </c>
       <c r="E143" t="n">
-        <v>79.8</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="F143" t="n">
-        <v>10</v>
+        <v>1208.8481</v>
       </c>
       <c r="G143" t="n">
-        <v>79.64999999999995</v>
+        <v>78.25500000000005</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5655,10 +5433,10 @@
         <v>79.8</v>
       </c>
       <c r="F144" t="n">
-        <v>1320.2347</v>
+        <v>10</v>
       </c>
       <c r="G144" t="n">
-        <v>79.79999999999995</v>
+        <v>78.30666666666671</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5678,22 +5456,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>79.90000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="C145" t="n">
-        <v>79</v>
+        <v>79.8</v>
       </c>
       <c r="D145" t="n">
-        <v>79.90000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="E145" t="n">
-        <v>79</v>
+        <v>79.8</v>
       </c>
       <c r="F145" t="n">
-        <v>44554.3022</v>
+        <v>1320.2347</v>
       </c>
       <c r="G145" t="n">
-        <v>79.39999999999995</v>
+        <v>78.35500000000006</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5713,22 +5491,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>79.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="C146" t="n">
-        <v>79.2</v>
+        <v>79</v>
       </c>
       <c r="D146" t="n">
-        <v>79.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="E146" t="n">
-        <v>79.2</v>
+        <v>79</v>
       </c>
       <c r="F146" t="n">
-        <v>11238.2297</v>
+        <v>44554.3022</v>
       </c>
       <c r="G146" t="n">
-        <v>79.09999999999994</v>
+        <v>78.3983333333334</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5751,19 +5529,19 @@
         <v>79.8</v>
       </c>
       <c r="C147" t="n">
-        <v>79.40000000000001</v>
+        <v>79.2</v>
       </c>
       <c r="D147" t="n">
         <v>79.8</v>
       </c>
       <c r="E147" t="n">
-        <v>79.40000000000001</v>
+        <v>79.2</v>
       </c>
       <c r="F147" t="n">
-        <v>3482.4866</v>
+        <v>11238.2297</v>
       </c>
       <c r="G147" t="n">
-        <v>79.29999999999994</v>
+        <v>78.44833333333341</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5783,22 +5561,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>79.09999999999999</v>
+        <v>79.8</v>
       </c>
       <c r="C148" t="n">
-        <v>79.09999999999999</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="D148" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="E148" t="n">
         <v>79.40000000000001</v>
       </c>
-      <c r="E148" t="n">
-        <v>79.09999999999999</v>
-      </c>
       <c r="F148" t="n">
-        <v>1838.6095</v>
+        <v>3482.4866</v>
       </c>
       <c r="G148" t="n">
-        <v>79.24999999999994</v>
+        <v>78.49500000000006</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5818,22 +5596,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>78.5</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="D149" t="n">
-        <v>79</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="E149" t="n">
-        <v>78.5</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="F149" t="n">
-        <v>24861.3096</v>
+        <v>1838.6095</v>
       </c>
       <c r="G149" t="n">
-        <v>78.79999999999994</v>
+        <v>78.53666666666672</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5853,22 +5631,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>78.40000000000001</v>
+        <v>79</v>
       </c>
       <c r="C150" t="n">
-        <v>78.3</v>
+        <v>78.5</v>
       </c>
       <c r="D150" t="n">
-        <v>78.40000000000001</v>
+        <v>79</v>
       </c>
       <c r="E150" t="n">
-        <v>78.3</v>
+        <v>78.5</v>
       </c>
       <c r="F150" t="n">
-        <v>1320.2347</v>
+        <v>24861.3096</v>
       </c>
       <c r="G150" t="n">
-        <v>78.39999999999993</v>
+        <v>78.56166666666672</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5888,22 +5666,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="C151" t="n">
         <v>78.3</v>
       </c>
-      <c r="C151" t="n">
-        <v>78.2</v>
-      </c>
       <c r="D151" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="E151" t="n">
         <v>78.3</v>
       </c>
-      <c r="E151" t="n">
-        <v>78.2</v>
-      </c>
       <c r="F151" t="n">
-        <v>7627.8665</v>
+        <v>1320.2347</v>
       </c>
       <c r="G151" t="n">
-        <v>78.24999999999994</v>
+        <v>78.58666666666673</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5923,22 +5701,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>78.59999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="C152" t="n">
-        <v>78.8</v>
+        <v>78.2</v>
       </c>
       <c r="D152" t="n">
-        <v>78.8</v>
+        <v>78.3</v>
       </c>
       <c r="E152" t="n">
-        <v>78.59999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="F152" t="n">
-        <v>13554.6965</v>
+        <v>7627.8665</v>
       </c>
       <c r="G152" t="n">
-        <v>78.49999999999994</v>
+        <v>78.61333333333339</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5958,22 +5736,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>78.90000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="C153" t="n">
-        <v>78.90000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="D153" t="n">
-        <v>78.90000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="E153" t="n">
-        <v>78.90000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="F153" t="n">
-        <v>451.8645</v>
+        <v>13554.6965</v>
       </c>
       <c r="G153" t="n">
-        <v>78.84999999999994</v>
+        <v>78.64833333333338</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5993,22 +5771,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>79.2</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>79.3</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="D154" t="n">
-        <v>79.3</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="E154" t="n">
-        <v>79.2</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F154" t="n">
-        <v>2414.1593</v>
+        <v>451.8645</v>
       </c>
       <c r="G154" t="n">
-        <v>79.09999999999994</v>
+        <v>78.68166666666671</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6028,22 +5806,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>79.40000000000001</v>
+        <v>79.2</v>
       </c>
       <c r="C155" t="n">
-        <v>79.40000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="D155" t="n">
-        <v>79.40000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="E155" t="n">
-        <v>79.40000000000001</v>
+        <v>79.2</v>
       </c>
       <c r="F155" t="n">
-        <v>761.0309</v>
+        <v>2414.1593</v>
       </c>
       <c r="G155" t="n">
-        <v>79.34999999999994</v>
+        <v>78.72166666666674</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6063,22 +5841,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>78.90000000000001</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="C156" t="n">
-        <v>79.2</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="D156" t="n">
         <v>79.40000000000001</v>
       </c>
       <c r="E156" t="n">
-        <v>78.8</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="F156" t="n">
-        <v>76935.1666</v>
+        <v>761.0309</v>
       </c>
       <c r="G156" t="n">
-        <v>79.29999999999993</v>
+        <v>78.7583333333334</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6098,22 +5876,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>78.59999999999999</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="C157" t="n">
-        <v>78.90000000000001</v>
+        <v>79.2</v>
       </c>
       <c r="D157" t="n">
-        <v>78.90000000000001</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="E157" t="n">
-        <v>78.40000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="F157" t="n">
-        <v>60480.3628</v>
+        <v>76935.1666</v>
       </c>
       <c r="G157" t="n">
-        <v>79.04999999999993</v>
+        <v>78.78500000000005</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6133,22 +5911,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>78.3</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>78.3</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="D158" t="n">
-        <v>78.3</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="E158" t="n">
-        <v>78.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F158" t="n">
-        <v>2641.1772</v>
+        <v>60480.3628</v>
       </c>
       <c r="G158" t="n">
-        <v>78.59999999999994</v>
+        <v>78.79333333333338</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6171,19 +5949,19 @@
         <v>78.3</v>
       </c>
       <c r="C159" t="n">
-        <v>78.8</v>
+        <v>78.3</v>
       </c>
       <c r="D159" t="n">
-        <v>78.8</v>
+        <v>78.3</v>
       </c>
       <c r="E159" t="n">
         <v>78.3</v>
       </c>
       <c r="F159" t="n">
-        <v>67459.818</v>
+        <v>2641.1772</v>
       </c>
       <c r="G159" t="n">
-        <v>78.54999999999994</v>
+        <v>78.78833333333338</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6203,22 +5981,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>78.90000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="C160" t="n">
-        <v>78.90000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="D160" t="n">
-        <v>78.90000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="E160" t="n">
-        <v>78.90000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="F160" t="n">
-        <v>730</v>
+        <v>67459.818</v>
       </c>
       <c r="G160" t="n">
-        <v>78.84999999999994</v>
+        <v>78.79333333333338</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6250,10 +6028,10 @@
         <v>78.90000000000001</v>
       </c>
       <c r="F161" t="n">
-        <v>2501</v>
+        <v>730</v>
       </c>
       <c r="G161" t="n">
-        <v>78.89999999999995</v>
+        <v>78.79833333333337</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6276,19 +6054,19 @@
         <v>78.90000000000001</v>
       </c>
       <c r="C162" t="n">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="D162" t="n">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="E162" t="n">
         <v>78.90000000000001</v>
       </c>
       <c r="F162" t="n">
-        <v>941.0121</v>
+        <v>2501</v>
       </c>
       <c r="G162" t="n">
-        <v>78.94999999999995</v>
+        <v>78.80333333333336</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6308,22 +6086,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>78.5</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="C163" t="n">
-        <v>78.5</v>
+        <v>79</v>
       </c>
       <c r="D163" t="n">
-        <v>78.5</v>
+        <v>79</v>
       </c>
       <c r="E163" t="n">
-        <v>78.40000000000001</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F163" t="n">
-        <v>5711.4059</v>
+        <v>941.0121</v>
       </c>
       <c r="G163" t="n">
-        <v>78.74999999999994</v>
+        <v>78.81000000000002</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6343,22 +6121,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="C164" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="D164" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="E164" t="n">
         <v>78.40000000000001</v>
       </c>
       <c r="F164" t="n">
-        <v>6644.6478</v>
+        <v>5711.4059</v>
       </c>
       <c r="G164" t="n">
-        <v>78.44999999999995</v>
+        <v>78.82166666666669</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6378,22 +6156,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>78.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C165" t="n">
-        <v>78.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D165" t="n">
-        <v>78.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E165" t="n">
-        <v>78.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F165" t="n">
-        <v>25</v>
+        <v>6644.6478</v>
       </c>
       <c r="G165" t="n">
-        <v>78.44999999999995</v>
+        <v>78.81833333333334</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6425,10 +6203,10 @@
         <v>78.5</v>
       </c>
       <c r="F166" t="n">
-        <v>5601.9346</v>
+        <v>25</v>
       </c>
       <c r="G166" t="n">
-        <v>78.49999999999994</v>
+        <v>78.82666666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6448,22 +6226,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>78.7</v>
+        <v>78.5</v>
       </c>
       <c r="C167" t="n">
-        <v>78.7</v>
+        <v>78.5</v>
       </c>
       <c r="D167" t="n">
-        <v>78.7</v>
+        <v>78.5</v>
       </c>
       <c r="E167" t="n">
-        <v>78.7</v>
+        <v>78.5</v>
       </c>
       <c r="F167" t="n">
-        <v>3838</v>
+        <v>5601.9346</v>
       </c>
       <c r="G167" t="n">
-        <v>78.59999999999994</v>
+        <v>78.82833333333335</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6483,22 +6261,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>78.5</v>
+        <v>78.7</v>
       </c>
       <c r="C168" t="n">
-        <v>78.5</v>
+        <v>78.7</v>
       </c>
       <c r="D168" t="n">
-        <v>78.5</v>
+        <v>78.7</v>
       </c>
       <c r="E168" t="n">
-        <v>78.5</v>
+        <v>78.7</v>
       </c>
       <c r="F168" t="n">
-        <v>2403.3554</v>
+        <v>3838</v>
       </c>
       <c r="G168" t="n">
-        <v>78.59999999999994</v>
+        <v>78.83500000000001</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6530,10 +6308,10 @@
         <v>78.5</v>
       </c>
       <c r="F169" t="n">
-        <v>15846.1169</v>
+        <v>2403.3554</v>
       </c>
       <c r="G169" t="n">
-        <v>78.49999999999994</v>
+        <v>78.83833333333334</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6565,10 +6343,10 @@
         <v>78.5</v>
       </c>
       <c r="F170" t="n">
-        <v>3527.0065</v>
+        <v>15846.1169</v>
       </c>
       <c r="G170" t="n">
-        <v>78.49999999999994</v>
+        <v>78.85666666666667</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6588,22 +6366,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>78.7</v>
+        <v>78.5</v>
       </c>
       <c r="C171" t="n">
-        <v>78.7</v>
+        <v>78.5</v>
       </c>
       <c r="D171" t="n">
-        <v>78.7</v>
+        <v>78.5</v>
       </c>
       <c r="E171" t="n">
-        <v>78.7</v>
+        <v>78.5</v>
       </c>
       <c r="F171" t="n">
-        <v>947.5573000000001</v>
+        <v>3527.0065</v>
       </c>
       <c r="G171" t="n">
-        <v>78.59999999999994</v>
+        <v>78.88166666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6623,22 +6401,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>78.40000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="C172" t="n">
-        <v>78.40000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="D172" t="n">
-        <v>78.40000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="E172" t="n">
-        <v>78.40000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="F172" t="n">
-        <v>200</v>
+        <v>947.5573000000001</v>
       </c>
       <c r="G172" t="n">
-        <v>78.54999999999994</v>
+        <v>78.91500000000001</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6658,22 +6436,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C173" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D173" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E173" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F173" t="n">
-        <v>4597.3731</v>
+        <v>200</v>
       </c>
       <c r="G173" t="n">
-        <v>78.49999999999994</v>
+        <v>78.94000000000001</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6696,19 +6474,19 @@
         <v>78.59999999999999</v>
       </c>
       <c r="C174" t="n">
-        <v>79</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="D174" t="n">
-        <v>79</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="E174" t="n">
         <v>78.59999999999999</v>
       </c>
       <c r="F174" t="n">
-        <v>642</v>
+        <v>4597.3731</v>
       </c>
       <c r="G174" t="n">
-        <v>78.79999999999994</v>
+        <v>78.95500000000001</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6731,19 +6509,19 @@
         <v>78.59999999999999</v>
       </c>
       <c r="C175" t="n">
-        <v>78.40000000000001</v>
+        <v>79</v>
       </c>
       <c r="D175" t="n">
+        <v>79</v>
+      </c>
+      <c r="E175" t="n">
         <v>78.59999999999999</v>
       </c>
-      <c r="E175" t="n">
-        <v>78.40000000000001</v>
-      </c>
       <c r="F175" t="n">
-        <v>42501.4907</v>
+        <v>642</v>
       </c>
       <c r="G175" t="n">
-        <v>78.69999999999995</v>
+        <v>78.97166666666668</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6763,22 +6541,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>78.40000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="C176" t="n">
         <v>78.40000000000001</v>
       </c>
       <c r="D176" t="n">
-        <v>78.40000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="E176" t="n">
         <v>78.40000000000001</v>
       </c>
       <c r="F176" t="n">
-        <v>149.625</v>
+        <v>42501.4907</v>
       </c>
       <c r="G176" t="n">
-        <v>78.39999999999995</v>
+        <v>78.97833333333334</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6798,22 +6576,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>78.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C177" t="n">
-        <v>78.8</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D177" t="n">
-        <v>78.8</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E177" t="n">
-        <v>78</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F177" t="n">
-        <v>37560.6784</v>
+        <v>149.625</v>
       </c>
       <c r="G177" t="n">
-        <v>78.59999999999995</v>
+        <v>78.98166666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6833,22 +6611,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>78.5</v>
+        <v>78.3</v>
       </c>
       <c r="C178" t="n">
-        <v>78.5</v>
+        <v>78.8</v>
       </c>
       <c r="D178" t="n">
-        <v>78.5</v>
+        <v>78.8</v>
       </c>
       <c r="E178" t="n">
-        <v>78.5</v>
+        <v>78</v>
       </c>
       <c r="F178" t="n">
-        <v>21.0753</v>
+        <v>37560.6784</v>
       </c>
       <c r="G178" t="n">
-        <v>78.64999999999995</v>
+        <v>78.99166666666669</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6871,19 +6649,19 @@
         <v>78.5</v>
       </c>
       <c r="C179" t="n">
-        <v>78.90000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="D179" t="n">
-        <v>78.90000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="E179" t="n">
         <v>78.5</v>
       </c>
       <c r="F179" t="n">
-        <v>175.6921</v>
+        <v>21.0753</v>
       </c>
       <c r="G179" t="n">
-        <v>78.69999999999996</v>
+        <v>78.99000000000001</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6903,7 +6681,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>78.8</v>
+        <v>78.5</v>
       </c>
       <c r="C180" t="n">
         <v>78.90000000000001</v>
@@ -6912,13 +6690,13 @@
         <v>78.90000000000001</v>
       </c>
       <c r="E180" t="n">
-        <v>78.8</v>
+        <v>78.5</v>
       </c>
       <c r="F180" t="n">
-        <v>6396.504161470216</v>
+        <v>175.6921</v>
       </c>
       <c r="G180" t="n">
-        <v>78.89999999999996</v>
+        <v>78.99499999999999</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6938,22 +6716,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>78.5</v>
+        <v>78.8</v>
       </c>
       <c r="C181" t="n">
-        <v>78.5</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="D181" t="n">
-        <v>78.5</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="E181" t="n">
-        <v>78.5</v>
+        <v>78.8</v>
       </c>
       <c r="F181" t="n">
-        <v>1542.4029</v>
+        <v>6396.504161470216</v>
       </c>
       <c r="G181" t="n">
-        <v>78.69999999999996</v>
+        <v>78.99333333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6973,22 +6751,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>78.8</v>
+        <v>78.5</v>
       </c>
       <c r="C182" t="n">
-        <v>78.8</v>
+        <v>78.5</v>
       </c>
       <c r="D182" t="n">
-        <v>78.8</v>
+        <v>78.5</v>
       </c>
       <c r="E182" t="n">
-        <v>78.3</v>
+        <v>78.5</v>
       </c>
       <c r="F182" t="n">
-        <v>20278.1522</v>
+        <v>1542.4029</v>
       </c>
       <c r="G182" t="n">
-        <v>78.64999999999996</v>
+        <v>78.98333333333332</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7008,22 +6786,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>78.3</v>
+        <v>78.8</v>
       </c>
       <c r="C183" t="n">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="D183" t="n">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="E183" t="n">
         <v>78.3</v>
       </c>
       <c r="F183" t="n">
-        <v>210</v>
+        <v>20278.1522</v>
       </c>
       <c r="G183" t="n">
-        <v>78.74999999999997</v>
+        <v>78.97499999999998</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7043,22 +6821,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>79</v>
+        <v>78.3</v>
       </c>
       <c r="C184" t="n">
-        <v>79</v>
+        <v>78.7</v>
       </c>
       <c r="D184" t="n">
-        <v>79</v>
+        <v>78.7</v>
       </c>
       <c r="E184" t="n">
-        <v>79</v>
+        <v>78.3</v>
       </c>
       <c r="F184" t="n">
-        <v>5921</v>
+        <v>210</v>
       </c>
       <c r="G184" t="n">
-        <v>78.84999999999997</v>
+        <v>78.95999999999998</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7081,19 +6859,19 @@
         <v>79</v>
       </c>
       <c r="C185" t="n">
-        <v>79.40000000000001</v>
+        <v>79</v>
       </c>
       <c r="D185" t="n">
-        <v>79.40000000000001</v>
+        <v>79</v>
       </c>
       <c r="E185" t="n">
         <v>79</v>
       </c>
       <c r="F185" t="n">
-        <v>48002.4075</v>
+        <v>5921</v>
       </c>
       <c r="G185" t="n">
-        <v>79.19999999999996</v>
+        <v>78.94833333333331</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7116,19 +6894,19 @@
         <v>79</v>
       </c>
       <c r="C186" t="n">
-        <v>79</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="D186" t="n">
-        <v>79</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="E186" t="n">
         <v>79</v>
       </c>
       <c r="F186" t="n">
-        <v>166.0157</v>
+        <v>48002.4075</v>
       </c>
       <c r="G186" t="n">
-        <v>79.19999999999996</v>
+        <v>78.94333333333331</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7160,10 +6938,10 @@
         <v>79</v>
       </c>
       <c r="F187" t="n">
-        <v>8841.0843</v>
+        <v>166.0157</v>
       </c>
       <c r="G187" t="n">
-        <v>78.99999999999996</v>
+        <v>78.93166666666664</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7186,19 +6964,19 @@
         <v>79</v>
       </c>
       <c r="C188" t="n">
-        <v>78.3</v>
+        <v>79</v>
       </c>
       <c r="D188" t="n">
         <v>79</v>
       </c>
       <c r="E188" t="n">
-        <v>78.2</v>
+        <v>79</v>
       </c>
       <c r="F188" t="n">
-        <v>75547.36229999999</v>
+        <v>8841.0843</v>
       </c>
       <c r="G188" t="n">
-        <v>78.64999999999995</v>
+        <v>78.91999999999999</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7218,22 +6996,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
+        <v>79</v>
+      </c>
+      <c r="C189" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="D189" t="n">
+        <v>79</v>
+      </c>
+      <c r="E189" t="n">
         <v>78.2</v>
       </c>
-      <c r="C189" t="n">
-        <v>78</v>
-      </c>
-      <c r="D189" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="E189" t="n">
-        <v>78</v>
-      </c>
       <c r="F189" t="n">
-        <v>26627.1901</v>
+        <v>75547.36229999999</v>
       </c>
       <c r="G189" t="n">
-        <v>78.14999999999995</v>
+        <v>78.90499999999999</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7256,19 +7034,19 @@
         <v>78.2</v>
       </c>
       <c r="C190" t="n">
-        <v>78.2</v>
+        <v>78</v>
       </c>
       <c r="D190" t="n">
         <v>78.2</v>
       </c>
       <c r="E190" t="n">
-        <v>78.2</v>
+        <v>78</v>
       </c>
       <c r="F190" t="n">
-        <v>12887</v>
+        <v>26627.1901</v>
       </c>
       <c r="G190" t="n">
-        <v>78.09999999999994</v>
+        <v>78.88499999999999</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7283,6 +7061,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="C191" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="D191" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="E191" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="F191" t="n">
+        <v>12887</v>
+      </c>
+      <c r="G191" t="n">
+        <v>78.85999999999999</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-20 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-20 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M191"/>
+  <dimension ref="A1:N201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1388.6898</v>
       </c>
       <c r="G2" t="n">
+        <v>76.66666666666664</v>
+      </c>
+      <c r="H2" t="n">
         <v>77.48666666666672</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>20.7553</v>
       </c>
       <c r="G3" t="n">
+        <v>76.69999999999997</v>
+      </c>
+      <c r="H3" t="n">
         <v>77.49166666666673</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>119.3704</v>
       </c>
       <c r="G4" t="n">
+        <v>76.68666666666664</v>
+      </c>
+      <c r="H4" t="n">
         <v>77.48500000000007</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>13813.8968</v>
       </c>
       <c r="G5" t="n">
+        <v>76.7133333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>77.48666666666674</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>2000</v>
       </c>
       <c r="G6" t="n">
+        <v>76.73333333333329</v>
+      </c>
+      <c r="H6" t="n">
         <v>77.48666666666674</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>32535.4712</v>
       </c>
       <c r="G7" t="n">
+        <v>76.75999999999996</v>
+      </c>
+      <c r="H7" t="n">
         <v>77.47833333333341</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>13006.9115</v>
       </c>
       <c r="G8" t="n">
+        <v>76.75999999999996</v>
+      </c>
+      <c r="H8" t="n">
         <v>77.46666666666673</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>3657.6817</v>
       </c>
       <c r="G9" t="n">
+        <v>76.78666666666663</v>
+      </c>
+      <c r="H9" t="n">
         <v>77.43333333333339</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>3606</v>
       </c>
       <c r="G10" t="n">
+        <v>76.8333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>77.40833333333339</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>17231.7167</v>
       </c>
       <c r="G11" t="n">
+        <v>76.89333333333329</v>
+      </c>
+      <c r="H11" t="n">
         <v>77.39000000000007</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>700.4153</v>
       </c>
       <c r="G12" t="n">
+        <v>76.96666666666664</v>
+      </c>
+      <c r="H12" t="n">
         <v>77.37333333333341</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>100</v>
       </c>
       <c r="G13" t="n">
+        <v>77.00666666666663</v>
+      </c>
+      <c r="H13" t="n">
         <v>77.34500000000007</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>2000</v>
       </c>
       <c r="G14" t="n">
+        <v>77.07999999999996</v>
+      </c>
+      <c r="H14" t="n">
         <v>77.32000000000008</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>1185.5032</v>
       </c>
       <c r="G15" t="n">
+        <v>77.13333333333328</v>
+      </c>
+      <c r="H15" t="n">
         <v>77.29166666666674</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>7022.8</v>
       </c>
       <c r="G16" t="n">
+        <v>77.22666666666662</v>
+      </c>
+      <c r="H16" t="n">
         <v>77.26166666666676</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>5000</v>
       </c>
       <c r="G17" t="n">
+        <v>77.28666666666662</v>
+      </c>
+      <c r="H17" t="n">
         <v>77.23500000000008</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>693</v>
       </c>
       <c r="G18" t="n">
+        <v>77.34666666666662</v>
+      </c>
+      <c r="H18" t="n">
         <v>77.21333333333341</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>1156</v>
       </c>
       <c r="G19" t="n">
+        <v>77.44666666666663</v>
+      </c>
+      <c r="H19" t="n">
         <v>77.19333333333341</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>99</v>
       </c>
       <c r="G20" t="n">
+        <v>77.5533333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>77.18333333333341</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>7191.0799</v>
       </c>
       <c r="G21" t="n">
+        <v>77.65333333333329</v>
+      </c>
+      <c r="H21" t="n">
         <v>77.19166666666675</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>1542.4029</v>
       </c>
       <c r="G22" t="n">
+        <v>77.7733333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>77.21666666666674</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>114.6207</v>
       </c>
       <c r="G23" t="n">
+        <v>77.88666666666661</v>
+      </c>
+      <c r="H23" t="n">
         <v>77.24000000000008</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>7428.6781</v>
       </c>
       <c r="G24" t="n">
+        <v>77.98666666666662</v>
+      </c>
+      <c r="H24" t="n">
         <v>77.26666666666675</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>1391</v>
       </c>
       <c r="G25" t="n">
+        <v>78.06666666666661</v>
+      </c>
+      <c r="H25" t="n">
         <v>77.28666666666678</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>3733.1798</v>
       </c>
       <c r="G26" t="n">
+        <v>78.1466666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>77.31166666666677</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>5046.7211</v>
       </c>
       <c r="G27" t="n">
+        <v>78.21333333333328</v>
+      </c>
+      <c r="H27" t="n">
         <v>77.33166666666676</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>4050.3048</v>
       </c>
       <c r="G28" t="n">
+        <v>78.30666666666662</v>
+      </c>
+      <c r="H28" t="n">
         <v>77.34833333333343</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>18986.7275</v>
       </c>
       <c r="G29" t="n">
+        <v>78.38666666666661</v>
+      </c>
+      <c r="H29" t="n">
         <v>77.3700000000001</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>397.3949</v>
       </c>
       <c r="G30" t="n">
+        <v>78.46666666666663</v>
+      </c>
+      <c r="H30" t="n">
         <v>77.38666666666677</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>634.5177664974619</v>
       </c>
       <c r="G31" t="n">
+        <v>78.54666666666662</v>
+      </c>
+      <c r="H31" t="n">
         <v>77.40333333333344</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>4846.268733502538</v>
       </c>
       <c r="G32" t="n">
+        <v>78.61999999999995</v>
+      </c>
+      <c r="H32" t="n">
         <v>77.42833333333344</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>114.0009</v>
       </c>
       <c r="G33" t="n">
+        <v>78.68666666666662</v>
+      </c>
+      <c r="H33" t="n">
         <v>77.46000000000009</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>300</v>
       </c>
       <c r="G34" t="n">
+        <v>78.74666666666663</v>
+      </c>
+      <c r="H34" t="n">
         <v>77.48833333333343</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>4846.2688</v>
       </c>
       <c r="G35" t="n">
+        <v>78.73333333333329</v>
+      </c>
+      <c r="H35" t="n">
         <v>77.50333333333342</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>78817.4026</v>
       </c>
       <c r="G36" t="n">
+        <v>78.75333333333329</v>
+      </c>
+      <c r="H36" t="n">
         <v>77.5300000000001</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>626.6553</v>
       </c>
       <c r="G37" t="n">
+        <v>78.77333333333328</v>
+      </c>
+      <c r="H37" t="n">
         <v>77.55833333333342</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>47</v>
       </c>
       <c r="G38" t="n">
+        <v>78.79999999999995</v>
+      </c>
+      <c r="H38" t="n">
         <v>77.58166666666675</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>6368.2733</v>
       </c>
       <c r="G39" t="n">
+        <v>78.83999999999995</v>
+      </c>
+      <c r="H39" t="n">
         <v>77.61166666666675</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>5311.5301</v>
       </c>
       <c r="G40" t="n">
+        <v>78.87333333333328</v>
+      </c>
+      <c r="H40" t="n">
         <v>77.64166666666675</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>1073.2839</v>
       </c>
       <c r="G41" t="n">
+        <v>78.89999999999995</v>
+      </c>
+      <c r="H41" t="n">
         <v>77.6750000000001</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>956.4697</v>
       </c>
       <c r="G42" t="n">
+        <v>78.92666666666661</v>
+      </c>
+      <c r="H42" t="n">
         <v>77.70666666666676</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>5071.2426</v>
       </c>
       <c r="G43" t="n">
+        <v>78.95333333333328</v>
+      </c>
+      <c r="H43" t="n">
         <v>77.73833333333344</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>27736.753</v>
       </c>
       <c r="G44" t="n">
+        <v>78.97333333333327</v>
+      </c>
+      <c r="H44" t="n">
         <v>77.77833333333345</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>19524.5029</v>
       </c>
       <c r="G45" t="n">
+        <v>78.98666666666661</v>
+      </c>
+      <c r="H45" t="n">
         <v>77.81500000000011</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>23733.7626</v>
       </c>
       <c r="G46" t="n">
+        <v>79.0066666666666</v>
+      </c>
+      <c r="H46" t="n">
         <v>77.85333333333345</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>1522.2077</v>
       </c>
       <c r="G47" t="n">
+        <v>79.0266666666666</v>
+      </c>
+      <c r="H47" t="n">
         <v>77.90000000000012</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>11453.3745</v>
       </c>
       <c r="G48" t="n">
+        <v>78.99333333333327</v>
+      </c>
+      <c r="H48" t="n">
         <v>77.93166666666679</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>1521.4812</v>
       </c>
       <c r="G49" t="n">
+        <v>78.95999999999994</v>
+      </c>
+      <c r="H49" t="n">
         <v>77.96000000000011</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>129</v>
       </c>
       <c r="G50" t="n">
+        <v>78.99333333333327</v>
+      </c>
+      <c r="H50" t="n">
         <v>77.99833333333345</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>1064.1179</v>
       </c>
       <c r="G51" t="n">
+        <v>78.9666666666666</v>
+      </c>
+      <c r="H51" t="n">
         <v>78.0266666666668</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>92898.09239999999</v>
       </c>
       <c r="G52" t="n">
+        <v>78.9666666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>78.06833333333346</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>71286.08809999999</v>
       </c>
       <c r="G53" t="n">
+        <v>78.91333333333326</v>
+      </c>
+      <c r="H53" t="n">
         <v>78.09000000000013</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>16.3926</v>
       </c>
       <c r="G54" t="n">
+        <v>78.85333333333327</v>
+      </c>
+      <c r="H54" t="n">
         <v>78.11666666666679</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>901.4094</v>
       </c>
       <c r="G55" t="n">
+        <v>78.7866666666666</v>
+      </c>
+      <c r="H55" t="n">
         <v>78.14000000000013</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>634.5177</v>
       </c>
       <c r="G56" t="n">
+        <v>78.70666666666661</v>
+      </c>
+      <c r="H56" t="n">
         <v>78.1616666666668</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>12848</v>
       </c>
       <c r="G57" t="n">
+        <v>78.63333333333327</v>
+      </c>
+      <c r="H57" t="n">
         <v>78.18500000000013</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>9022.204400000001</v>
       </c>
       <c r="G58" t="n">
+        <v>78.55333333333328</v>
+      </c>
+      <c r="H58" t="n">
         <v>78.20500000000013</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>20000</v>
       </c>
       <c r="G59" t="n">
+        <v>78.4733333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>78.22833333333345</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>118010.3408</v>
       </c>
       <c r="G60" t="n">
+        <v>78.36666666666663</v>
+      </c>
+      <c r="H60" t="n">
         <v>78.23833333333344</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>103.4152</v>
       </c>
       <c r="G61" t="n">
+        <v>78.23999999999998</v>
+      </c>
+      <c r="H61" t="n">
         <v>78.25500000000011</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>647.6684</v>
       </c>
       <c r="G62" t="n">
+        <v>78.11333333333332</v>
+      </c>
+      <c r="H62" t="n">
         <v>78.26166666666677</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>622.879</v>
       </c>
       <c r="G63" t="n">
+        <v>78.01999999999998</v>
+      </c>
+      <c r="H63" t="n">
         <v>78.26166666666677</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>477.3561</v>
       </c>
       <c r="G64" t="n">
+        <v>77.93333333333332</v>
+      </c>
+      <c r="H64" t="n">
         <v>78.27166666666676</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>538.2907</v>
       </c>
       <c r="G65" t="n">
+        <v>77.81333333333332</v>
+      </c>
+      <c r="H65" t="n">
         <v>78.27333333333341</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>291.6637</v>
       </c>
       <c r="G66" t="n">
+        <v>77.71333333333332</v>
+      </c>
+      <c r="H66" t="n">
         <v>78.27166666666676</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,25 @@
         <v>693.0903</v>
       </c>
       <c r="G67" t="n">
+        <v>77.58666666666664</v>
+      </c>
+      <c r="H67" t="n">
         <v>78.27500000000011</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="L67" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2965,29 @@
         <v>2684.2364</v>
       </c>
       <c r="G68" t="n">
+        <v>77.47333333333331</v>
+      </c>
+      <c r="H68" t="n">
         <v>78.26833333333344</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="L68" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3011,29 @@
         <v>4594</v>
       </c>
       <c r="G69" t="n">
+        <v>77.41333333333331</v>
+      </c>
+      <c r="H69" t="n">
         <v>78.27333333333345</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="L69" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3057,29 @@
         <v>11568.8429</v>
       </c>
       <c r="G70" t="n">
+        <v>77.33333333333331</v>
+      </c>
+      <c r="H70" t="n">
         <v>78.26500000000011</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="L70" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3103,29 @@
         <v>31.6215</v>
       </c>
       <c r="G71" t="n">
+        <v>77.25333333333332</v>
+      </c>
+      <c r="H71" t="n">
         <v>78.25166666666678</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="L71" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3149,29 @@
         <v>147</v>
       </c>
       <c r="G72" t="n">
+        <v>77.19333333333331</v>
+      </c>
+      <c r="H72" t="n">
         <v>78.24166666666679</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="L72" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,22 +3195,29 @@
         <v>122.1218</v>
       </c>
       <c r="G73" t="n">
+        <v>77.1333333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>78.23666666666678</v>
       </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>77.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
         <v>77.09999999999999</v>
       </c>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2972,24 +3241,29 @@
         <v>20055.3705</v>
       </c>
       <c r="G74" t="n">
+        <v>77.0733333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>78.22666666666677</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+        <v>77</v>
+      </c>
+      <c r="L74" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3013,26 +3287,29 @@
         <v>6443.7</v>
       </c>
       <c r="G75" t="n">
+        <v>77.06666666666662</v>
+      </c>
+      <c r="H75" t="n">
         <v>78.22166666666678</v>
       </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
         <v>77</v>
       </c>
-      <c r="K75" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3056,18 +3333,27 @@
         <v>147.2607</v>
       </c>
       <c r="G76" t="n">
+        <v>77.05999999999995</v>
+      </c>
+      <c r="H76" t="n">
         <v>78.21333333333344</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3091,18 +3377,27 @@
         <v>205</v>
       </c>
       <c r="G77" t="n">
+        <v>77.07333333333328</v>
+      </c>
+      <c r="H77" t="n">
         <v>78.20833333333344</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3126,18 +3421,27 @@
         <v>205</v>
       </c>
       <c r="G78" t="n">
+        <v>77.10666666666661</v>
+      </c>
+      <c r="H78" t="n">
         <v>78.20166666666678</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3161,18 +3465,27 @@
         <v>3032.4234</v>
       </c>
       <c r="G79" t="n">
+        <v>77.07999999999994</v>
+      </c>
+      <c r="H79" t="n">
         <v>78.18000000000011</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3196,18 +3509,27 @@
         <v>649.3507</v>
       </c>
       <c r="G80" t="n">
+        <v>77.03999999999994</v>
+      </c>
+      <c r="H80" t="n">
         <v>78.14500000000012</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3231,18 +3553,27 @@
         <v>27704.2789</v>
       </c>
       <c r="G81" t="n">
+        <v>76.99999999999994</v>
+      </c>
+      <c r="H81" t="n">
         <v>78.10833333333345</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3266,18 +3597,29 @@
         <v>20000</v>
       </c>
       <c r="G82" t="n">
+        <v>76.95333333333329</v>
+      </c>
+      <c r="H82" t="n">
         <v>78.07000000000012</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="L82" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3301,18 +3643,29 @@
         <v>720</v>
       </c>
       <c r="G83" t="n">
+        <v>76.94666666666663</v>
+      </c>
+      <c r="H83" t="n">
         <v>78.03333333333345</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="L83" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3336,18 +3689,29 @@
         <v>37109.8928</v>
       </c>
       <c r="G84" t="n">
+        <v>76.90666666666662</v>
+      </c>
+      <c r="H84" t="n">
         <v>78.00333333333343</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="L84" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3371,18 +3735,29 @@
         <v>591.306</v>
       </c>
       <c r="G85" t="n">
+        <v>76.90666666666662</v>
+      </c>
+      <c r="H85" t="n">
         <v>77.97500000000009</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="L85" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,18 +3781,29 @@
         <v>18077.0832</v>
       </c>
       <c r="G86" t="n">
+        <v>76.87999999999997</v>
+      </c>
+      <c r="H86" t="n">
         <v>77.93500000000009</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="L86" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3441,18 +3827,29 @@
         <v>22078.6627</v>
       </c>
       <c r="G87" t="n">
+        <v>76.81999999999998</v>
+      </c>
+      <c r="H87" t="n">
         <v>77.89333333333342</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="L87" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3476,18 +3873,29 @@
         <v>2391.8543</v>
       </c>
       <c r="G88" t="n">
+        <v>76.79333333333331</v>
+      </c>
+      <c r="H88" t="n">
         <v>77.85833333333342</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L88" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3511,18 +3919,29 @@
         <v>26</v>
       </c>
       <c r="G89" t="n">
+        <v>76.76666666666664</v>
+      </c>
+      <c r="H89" t="n">
         <v>77.82166666666676</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="L89" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3546,18 +3965,29 @@
         <v>12384.3118</v>
       </c>
       <c r="G90" t="n">
+        <v>76.74666666666664</v>
+      </c>
+      <c r="H90" t="n">
         <v>77.79166666666676</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="L90" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3581,18 +4011,29 @@
         <v>5818.9895</v>
       </c>
       <c r="G91" t="n">
+        <v>76.72666666666665</v>
+      </c>
+      <c r="H91" t="n">
         <v>77.75833333333343</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>77</v>
+      </c>
+      <c r="L91" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3616,18 +4057,29 @@
         <v>221.1517</v>
       </c>
       <c r="G92" t="n">
+        <v>76.6733333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>77.72166666666676</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="L92" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3651,18 +4103,29 @@
         <v>255.1126</v>
       </c>
       <c r="G93" t="n">
+        <v>76.6133333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>77.68333333333342</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="L93" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,18 +4149,29 @@
         <v>120</v>
       </c>
       <c r="G94" t="n">
+        <v>76.61999999999998</v>
+      </c>
+      <c r="H94" t="n">
         <v>77.64833333333341</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="L94" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3721,18 +4195,27 @@
         <v>7593.2394</v>
       </c>
       <c r="G95" t="n">
+        <v>76.64</v>
+      </c>
+      <c r="H95" t="n">
         <v>77.62166666666674</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3756,18 +4239,27 @@
         <v>123.1352</v>
       </c>
       <c r="G96" t="n">
+        <v>76.68666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>77.59166666666674</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3791,18 +4283,27 @@
         <v>12785.2297</v>
       </c>
       <c r="G97" t="n">
+        <v>76.76666666666665</v>
+      </c>
+      <c r="H97" t="n">
         <v>77.56833333333341</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3826,18 +4327,27 @@
         <v>730</v>
       </c>
       <c r="G98" t="n">
+        <v>76.89999999999999</v>
+      </c>
+      <c r="H98" t="n">
         <v>77.55833333333341</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3861,18 +4371,27 @@
         <v>29309.1615</v>
       </c>
       <c r="G99" t="n">
+        <v>77.02666666666664</v>
+      </c>
+      <c r="H99" t="n">
         <v>77.55000000000008</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,18 +4415,27 @@
         <v>9636.0641</v>
       </c>
       <c r="G100" t="n">
+        <v>77.1333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>77.54000000000006</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3931,18 +4459,27 @@
         <v>3210.671</v>
       </c>
       <c r="G101" t="n">
+        <v>77.27999999999996</v>
+      </c>
+      <c r="H101" t="n">
         <v>77.53000000000007</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3966,18 +4503,27 @@
         <v>4851.2615</v>
       </c>
       <c r="G102" t="n">
+        <v>77.43999999999996</v>
+      </c>
+      <c r="H102" t="n">
         <v>77.52166666666675</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4001,18 +4547,27 @@
         <v>4302.3</v>
       </c>
       <c r="G103" t="n">
+        <v>77.57333333333328</v>
+      </c>
+      <c r="H103" t="n">
         <v>77.51333333333341</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4036,18 +4591,27 @@
         <v>39.5447</v>
       </c>
       <c r="G104" t="n">
+        <v>77.65333333333328</v>
+      </c>
+      <c r="H104" t="n">
         <v>77.49166666666675</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4071,18 +4635,27 @@
         <v>362.6845</v>
       </c>
       <c r="G105" t="n">
+        <v>77.75999999999995</v>
+      </c>
+      <c r="H105" t="n">
         <v>77.48500000000008</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4106,18 +4679,27 @@
         <v>3884.3733</v>
       </c>
       <c r="G106" t="n">
+        <v>77.83999999999995</v>
+      </c>
+      <c r="H106" t="n">
         <v>77.46666666666674</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4141,18 +4723,27 @@
         <v>120</v>
       </c>
       <c r="G107" t="n">
+        <v>77.95999999999997</v>
+      </c>
+      <c r="H107" t="n">
         <v>77.45500000000007</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4176,18 +4767,27 @@
         <v>63.5385</v>
       </c>
       <c r="G108" t="n">
+        <v>78.06666666666662</v>
+      </c>
+      <c r="H108" t="n">
         <v>77.45166666666674</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4211,18 +4811,27 @@
         <v>550.4669</v>
       </c>
       <c r="G109" t="n">
+        <v>78.15999999999994</v>
+      </c>
+      <c r="H109" t="n">
         <v>77.44833333333341</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4246,18 +4855,27 @@
         <v>29800.1615</v>
       </c>
       <c r="G110" t="n">
+        <v>78.19333333333329</v>
+      </c>
+      <c r="H110" t="n">
         <v>77.42166666666672</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4281,18 +4899,27 @@
         <v>1284.6735</v>
       </c>
       <c r="G111" t="n">
+        <v>78.17999999999994</v>
+      </c>
+      <c r="H111" t="n">
         <v>77.39500000000005</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,18 +4943,27 @@
         <v>11562.0616</v>
       </c>
       <c r="G112" t="n">
+        <v>78.11999999999995</v>
+      </c>
+      <c r="H112" t="n">
         <v>77.35666666666673</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4351,18 +4987,27 @@
         <v>180.3518</v>
       </c>
       <c r="G113" t="n">
+        <v>78.01999999999995</v>
+      </c>
+      <c r="H113" t="n">
         <v>77.33500000000005</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4386,18 +5031,27 @@
         <v>7137.6956</v>
       </c>
       <c r="G114" t="n">
+        <v>77.95999999999997</v>
+      </c>
+      <c r="H114" t="n">
         <v>77.32666666666672</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4421,18 +5075,27 @@
         <v>634.1961</v>
       </c>
       <c r="G115" t="n">
+        <v>77.92666666666663</v>
+      </c>
+      <c r="H115" t="n">
         <v>77.32500000000005</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,18 +5119,27 @@
         <v>1995</v>
       </c>
       <c r="G116" t="n">
+        <v>77.88666666666663</v>
+      </c>
+      <c r="H116" t="n">
         <v>77.32500000000005</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4491,18 +5163,27 @@
         <v>58</v>
       </c>
       <c r="G117" t="n">
+        <v>77.85999999999997</v>
+      </c>
+      <c r="H117" t="n">
         <v>77.32833333333338</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4526,18 +5207,27 @@
         <v>0.3801</v>
       </c>
       <c r="G118" t="n">
+        <v>77.83333333333331</v>
+      </c>
+      <c r="H118" t="n">
         <v>77.33333333333339</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4561,18 +5251,27 @@
         <v>23635.9566</v>
       </c>
       <c r="G119" t="n">
+        <v>77.88666666666664</v>
+      </c>
+      <c r="H119" t="n">
         <v>77.34500000000006</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4596,18 +5295,27 @@
         <v>17450.5628</v>
       </c>
       <c r="G120" t="n">
+        <v>77.88666666666664</v>
+      </c>
+      <c r="H120" t="n">
         <v>77.36500000000007</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4631,18 +5339,27 @@
         <v>6290.9689</v>
       </c>
       <c r="G121" t="n">
+        <v>77.95333333333332</v>
+      </c>
+      <c r="H121" t="n">
         <v>77.39500000000007</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4666,18 +5383,27 @@
         <v>39374.5962</v>
       </c>
       <c r="G122" t="n">
+        <v>77.99999999999997</v>
+      </c>
+      <c r="H122" t="n">
         <v>77.42666666666675</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4701,18 +5427,27 @@
         <v>2856.7368</v>
       </c>
       <c r="G123" t="n">
+        <v>78.06666666666663</v>
+      </c>
+      <c r="H123" t="n">
         <v>77.46333333333341</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4736,18 +5471,27 @@
         <v>2767.135</v>
       </c>
       <c r="G124" t="n">
+        <v>78.15333333333329</v>
+      </c>
+      <c r="H124" t="n">
         <v>77.50333333333342</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4771,18 +5515,27 @@
         <v>42339.0909</v>
       </c>
       <c r="G125" t="n">
+        <v>78.30666666666663</v>
+      </c>
+      <c r="H125" t="n">
         <v>77.54500000000009</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4806,18 +5559,27 @@
         <v>9221.188399999999</v>
       </c>
       <c r="G126" t="n">
+        <v>78.48666666666664</v>
+      </c>
+      <c r="H126" t="n">
         <v>77.58833333333341</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4841,18 +5603,27 @@
         <v>3781.0454</v>
       </c>
       <c r="G127" t="n">
+        <v>78.68666666666664</v>
+      </c>
+      <c r="H127" t="n">
         <v>77.63166666666673</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4876,18 +5647,27 @@
         <v>2199.7163</v>
       </c>
       <c r="G128" t="n">
+        <v>78.87333333333329</v>
+      </c>
+      <c r="H128" t="n">
         <v>77.68500000000007</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4911,18 +5691,27 @@
         <v>115.196</v>
       </c>
       <c r="G129" t="n">
+        <v>78.9733333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>77.71666666666673</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,18 +5735,27 @@
         <v>280.8253</v>
       </c>
       <c r="G130" t="n">
+        <v>79.0533333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>77.75500000000007</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4981,18 +5779,27 @@
         <v>14426.6251</v>
       </c>
       <c r="G131" t="n">
+        <v>79.16666666666664</v>
+      </c>
+      <c r="H131" t="n">
         <v>77.80333333333338</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5016,18 +5823,27 @@
         <v>13736</v>
       </c>
       <c r="G132" t="n">
+        <v>79.2733333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>77.84833333333339</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5051,18 +5867,27 @@
         <v>13231.7704</v>
       </c>
       <c r="G133" t="n">
+        <v>79.37999999999995</v>
+      </c>
+      <c r="H133" t="n">
         <v>77.89500000000005</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,18 +5911,27 @@
         <v>2394.3316</v>
       </c>
       <c r="G134" t="n">
+        <v>79.45999999999997</v>
+      </c>
+      <c r="H134" t="n">
         <v>77.94166666666673</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5121,18 +5955,27 @@
         <v>1634.2425</v>
       </c>
       <c r="G135" t="n">
+        <v>79.51999999999997</v>
+      </c>
+      <c r="H135" t="n">
         <v>77.9783333333334</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5156,18 +5999,27 @@
         <v>35815.5527</v>
       </c>
       <c r="G136" t="n">
+        <v>79.53999999999996</v>
+      </c>
+      <c r="H136" t="n">
         <v>78.01500000000006</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,18 +6043,27 @@
         <v>30060.3572</v>
       </c>
       <c r="G137" t="n">
+        <v>79.5533333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>78.04666666666672</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5226,18 +6087,27 @@
         <v>4266.0901</v>
       </c>
       <c r="G138" t="n">
+        <v>79.54666666666664</v>
+      </c>
+      <c r="H138" t="n">
         <v>78.07333333333339</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5261,18 +6131,27 @@
         <v>17540.3485</v>
       </c>
       <c r="G139" t="n">
+        <v>79.49999999999999</v>
+      </c>
+      <c r="H139" t="n">
         <v>78.10833333333338</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5296,18 +6175,27 @@
         <v>391.0833</v>
       </c>
       <c r="G140" t="n">
+        <v>79.3933333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>78.13333333333338</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5331,18 +6219,27 @@
         <v>2582.9278</v>
       </c>
       <c r="G141" t="n">
+        <v>79.30666666666664</v>
+      </c>
+      <c r="H141" t="n">
         <v>78.16500000000003</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5366,18 +6263,27 @@
         <v>7</v>
       </c>
       <c r="G142" t="n">
+        <v>79.23999999999998</v>
+      </c>
+      <c r="H142" t="n">
         <v>78.20333333333338</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5401,18 +6307,27 @@
         <v>1208.8481</v>
       </c>
       <c r="G143" t="n">
+        <v>79.22666666666665</v>
+      </c>
+      <c r="H143" t="n">
         <v>78.25500000000005</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5436,18 +6351,27 @@
         <v>10</v>
       </c>
       <c r="G144" t="n">
+        <v>79.26666666666664</v>
+      </c>
+      <c r="H144" t="n">
         <v>78.30666666666671</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5471,18 +6395,27 @@
         <v>1320.2347</v>
       </c>
       <c r="G145" t="n">
+        <v>79.30666666666663</v>
+      </c>
+      <c r="H145" t="n">
         <v>78.35500000000006</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5506,18 +6439,27 @@
         <v>44554.3022</v>
       </c>
       <c r="G146" t="n">
+        <v>79.25999999999996</v>
+      </c>
+      <c r="H146" t="n">
         <v>78.3983333333334</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5541,19 +6483,28 @@
         <v>11238.2297</v>
       </c>
       <c r="G147" t="n">
+        <v>79.21999999999997</v>
+      </c>
+      <c r="H147" t="n">
         <v>78.44833333333341</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
+      <c r="L147" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>1.022237354085603</v>
       </c>
     </row>
     <row r="148">
@@ -5576,18 +6527,21 @@
         <v>3482.4866</v>
       </c>
       <c r="G148" t="n">
+        <v>79.19333333333331</v>
+      </c>
+      <c r="H148" t="n">
         <v>78.49500000000006</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5611,18 +6565,21 @@
         <v>1838.6095</v>
       </c>
       <c r="G149" t="n">
+        <v>79.14666666666663</v>
+      </c>
+      <c r="H149" t="n">
         <v>78.53666666666672</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5646,18 +6603,21 @@
         <v>24861.3096</v>
       </c>
       <c r="G150" t="n">
+        <v>79.07999999999997</v>
+      </c>
+      <c r="H150" t="n">
         <v>78.56166666666672</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5681,18 +6641,21 @@
         <v>1320.2347</v>
       </c>
       <c r="G151" t="n">
+        <v>79.01333333333331</v>
+      </c>
+      <c r="H151" t="n">
         <v>78.58666666666673</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5716,18 +6679,21 @@
         <v>7627.8665</v>
       </c>
       <c r="G152" t="n">
+        <v>78.93999999999998</v>
+      </c>
+      <c r="H152" t="n">
         <v>78.61333333333339</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5751,18 +6717,21 @@
         <v>13554.6965</v>
       </c>
       <c r="G153" t="n">
+        <v>78.91333333333331</v>
+      </c>
+      <c r="H153" t="n">
         <v>78.64833333333338</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5786,18 +6755,21 @@
         <v>451.8645</v>
       </c>
       <c r="G154" t="n">
+        <v>78.91333333333331</v>
+      </c>
+      <c r="H154" t="n">
         <v>78.68166666666671</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5821,18 +6793,21 @@
         <v>2414.1593</v>
       </c>
       <c r="G155" t="n">
+        <v>78.99333333333331</v>
+      </c>
+      <c r="H155" t="n">
         <v>78.72166666666674</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5856,18 +6831,21 @@
         <v>761.0309</v>
       </c>
       <c r="G156" t="n">
+        <v>79.05999999999997</v>
+      </c>
+      <c r="H156" t="n">
         <v>78.7583333333334</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5891,18 +6869,21 @@
         <v>76935.1666</v>
       </c>
       <c r="G157" t="n">
+        <v>79.09333333333331</v>
+      </c>
+      <c r="H157" t="n">
         <v>78.78500000000005</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5926,18 +6907,21 @@
         <v>60480.3628</v>
       </c>
       <c r="G158" t="n">
+        <v>79.05333333333331</v>
+      </c>
+      <c r="H158" t="n">
         <v>78.79333333333338</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5961,18 +6945,21 @@
         <v>2641.1772</v>
       </c>
       <c r="G159" t="n">
+        <v>78.95333333333332</v>
+      </c>
+      <c r="H159" t="n">
         <v>78.78833333333338</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5996,18 +6983,21 @@
         <v>67459.818</v>
       </c>
       <c r="G160" t="n">
+        <v>78.88666666666664</v>
+      </c>
+      <c r="H160" t="n">
         <v>78.79333333333338</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6031,18 +7021,21 @@
         <v>730</v>
       </c>
       <c r="G161" t="n">
+        <v>78.87999999999998</v>
+      </c>
+      <c r="H161" t="n">
         <v>78.79833333333337</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6066,18 +7059,21 @@
         <v>2501</v>
       </c>
       <c r="G162" t="n">
+        <v>78.85999999999999</v>
+      </c>
+      <c r="H162" t="n">
         <v>78.80333333333336</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6101,18 +7097,21 @@
         <v>941.0121</v>
       </c>
       <c r="G163" t="n">
+        <v>78.83333333333331</v>
+      </c>
+      <c r="H163" t="n">
         <v>78.81000000000002</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6136,18 +7135,21 @@
         <v>5711.4059</v>
       </c>
       <c r="G164" t="n">
+        <v>78.79333333333332</v>
+      </c>
+      <c r="H164" t="n">
         <v>78.82166666666669</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6171,18 +7173,21 @@
         <v>6644.6478</v>
       </c>
       <c r="G165" t="n">
+        <v>78.78666666666666</v>
+      </c>
+      <c r="H165" t="n">
         <v>78.81833333333334</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6206,18 +7211,21 @@
         <v>25</v>
       </c>
       <c r="G166" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="H166" t="n">
         <v>78.82666666666667</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6241,18 +7249,21 @@
         <v>5601.9346</v>
       </c>
       <c r="G167" t="n">
+        <v>78.81999999999999</v>
+      </c>
+      <c r="H167" t="n">
         <v>78.82833333333335</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6276,18 +7287,21 @@
         <v>3838</v>
       </c>
       <c r="G168" t="n">
+        <v>78.81333333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>78.83500000000001</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6311,18 +7325,21 @@
         <v>2403.3554</v>
       </c>
       <c r="G169" t="n">
+        <v>78.78666666666666</v>
+      </c>
+      <c r="H169" t="n">
         <v>78.83833333333334</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6346,18 +7363,21 @@
         <v>15846.1169</v>
       </c>
       <c r="G170" t="n">
+        <v>78.73333333333333</v>
+      </c>
+      <c r="H170" t="n">
         <v>78.85666666666667</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6381,18 +7401,21 @@
         <v>3527.0065</v>
       </c>
       <c r="G171" t="n">
+        <v>78.67333333333333</v>
+      </c>
+      <c r="H171" t="n">
         <v>78.88166666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6416,18 +7439,21 @@
         <v>947.5573000000001</v>
       </c>
       <c r="G172" t="n">
+        <v>78.64</v>
+      </c>
+      <c r="H172" t="n">
         <v>78.91500000000001</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6451,18 +7477,21 @@
         <v>200</v>
       </c>
       <c r="G173" t="n">
+        <v>78.60666666666665</v>
+      </c>
+      <c r="H173" t="n">
         <v>78.94000000000001</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6486,18 +7515,21 @@
         <v>4597.3731</v>
       </c>
       <c r="G174" t="n">
+        <v>78.62666666666665</v>
+      </c>
+      <c r="H174" t="n">
         <v>78.95500000000001</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6521,18 +7553,21 @@
         <v>642</v>
       </c>
       <c r="G175" t="n">
+        <v>78.64</v>
+      </c>
+      <c r="H175" t="n">
         <v>78.97166666666668</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6556,18 +7591,21 @@
         <v>42501.4907</v>
       </c>
       <c r="G176" t="n">
+        <v>78.60666666666665</v>
+      </c>
+      <c r="H176" t="n">
         <v>78.97833333333334</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6591,18 +7629,21 @@
         <v>149.625</v>
       </c>
       <c r="G177" t="n">
+        <v>78.57333333333332</v>
+      </c>
+      <c r="H177" t="n">
         <v>78.98166666666667</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6626,18 +7667,21 @@
         <v>37560.6784</v>
       </c>
       <c r="G178" t="n">
+        <v>78.55999999999999</v>
+      </c>
+      <c r="H178" t="n">
         <v>78.99166666666669</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6661,18 +7705,21 @@
         <v>21.0753</v>
       </c>
       <c r="G179" t="n">
+        <v>78.55999999999999</v>
+      </c>
+      <c r="H179" t="n">
         <v>78.99000000000001</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6696,18 +7743,21 @@
         <v>175.6921</v>
       </c>
       <c r="G180" t="n">
+        <v>78.59333333333332</v>
+      </c>
+      <c r="H180" t="n">
         <v>78.99499999999999</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6731,18 +7781,21 @@
         <v>6396.504161470216</v>
       </c>
       <c r="G181" t="n">
+        <v>78.61999999999999</v>
+      </c>
+      <c r="H181" t="n">
         <v>78.99333333333333</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6766,18 +7819,21 @@
         <v>1542.4029</v>
       </c>
       <c r="G182" t="n">
+        <v>78.61999999999999</v>
+      </c>
+      <c r="H182" t="n">
         <v>78.98333333333332</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6801,18 +7857,21 @@
         <v>20278.1522</v>
       </c>
       <c r="G183" t="n">
+        <v>78.62666666666665</v>
+      </c>
+      <c r="H183" t="n">
         <v>78.97499999999998</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6836,18 +7895,21 @@
         <v>210</v>
       </c>
       <c r="G184" t="n">
+        <v>78.64</v>
+      </c>
+      <c r="H184" t="n">
         <v>78.95999999999998</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6871,18 +7933,21 @@
         <v>5921</v>
       </c>
       <c r="G185" t="n">
+        <v>78.67333333333333</v>
+      </c>
+      <c r="H185" t="n">
         <v>78.94833333333331</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6906,18 +7971,21 @@
         <v>48002.4075</v>
       </c>
       <c r="G186" t="n">
+        <v>78.73333333333333</v>
+      </c>
+      <c r="H186" t="n">
         <v>78.94333333333331</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6941,18 +8009,21 @@
         <v>166.0157</v>
       </c>
       <c r="G187" t="n">
+        <v>78.75333333333333</v>
+      </c>
+      <c r="H187" t="n">
         <v>78.93166666666664</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,18 +8047,21 @@
         <v>8841.0843</v>
       </c>
       <c r="G188" t="n">
+        <v>78.79333333333332</v>
+      </c>
+      <c r="H188" t="n">
         <v>78.91999999999999</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7011,18 +8085,21 @@
         <v>75547.36229999999</v>
       </c>
       <c r="G189" t="n">
+        <v>78.77333333333333</v>
+      </c>
+      <c r="H189" t="n">
         <v>78.90499999999999</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7046,18 +8123,21 @@
         <v>26627.1901</v>
       </c>
       <c r="G190" t="n">
+        <v>78.70666666666666</v>
+      </c>
+      <c r="H190" t="n">
         <v>78.88499999999999</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7081,18 +8161,401 @@
         <v>12887</v>
       </c>
       <c r="G191" t="n">
+        <v>78.69333333333333</v>
+      </c>
+      <c r="H191" t="n">
         <v>78.85999999999999</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>78</v>
+      </c>
+      <c r="C192" t="n">
+        <v>78</v>
+      </c>
+      <c r="D192" t="n">
+        <v>78</v>
+      </c>
+      <c r="E192" t="n">
+        <v>78</v>
+      </c>
+      <c r="F192" t="n">
+        <v>22038.0296</v>
+      </c>
+      <c r="G192" t="n">
+        <v>78.66666666666666</v>
+      </c>
+      <c r="H192" t="n">
+        <v>78.82999999999998</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>78</v>
+      </c>
+      <c r="C193" t="n">
+        <v>78</v>
+      </c>
+      <c r="D193" t="n">
+        <v>78</v>
+      </c>
+      <c r="E193" t="n">
+        <v>78</v>
+      </c>
+      <c r="F193" t="n">
+        <v>4694.2777</v>
+      </c>
+      <c r="G193" t="n">
+        <v>78.61333333333332</v>
+      </c>
+      <c r="H193" t="n">
+        <v>78.79999999999998</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>78</v>
+      </c>
+      <c r="C194" t="n">
+        <v>78</v>
+      </c>
+      <c r="D194" t="n">
+        <v>78</v>
+      </c>
+      <c r="E194" t="n">
+        <v>78</v>
+      </c>
+      <c r="F194" t="n">
+        <v>928.583</v>
+      </c>
+      <c r="G194" t="n">
+        <v>78.57999999999998</v>
+      </c>
+      <c r="H194" t="n">
+        <v>78.76999999999998</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="C195" t="n">
+        <v>79</v>
+      </c>
+      <c r="D195" t="n">
+        <v>79</v>
+      </c>
+      <c r="E195" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="F195" t="n">
+        <v>38206.3061</v>
+      </c>
+      <c r="G195" t="n">
+        <v>78.58666666666664</v>
+      </c>
+      <c r="H195" t="n">
+        <v>78.76166666666664</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>79</v>
+      </c>
+      <c r="C196" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="D196" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="E196" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="F196" t="n">
+        <v>21437.3598</v>
+      </c>
+      <c r="G196" t="n">
+        <v>78.57333333333331</v>
+      </c>
+      <c r="H196" t="n">
+        <v>78.75166666666664</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="C197" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="D197" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="E197" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="F197" t="n">
+        <v>9181.683199999999</v>
+      </c>
+      <c r="G197" t="n">
+        <v>78.6133333333333</v>
+      </c>
+      <c r="H197" t="n">
+        <v>78.74833333333331</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="C198" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="D198" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="E198" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="F198" t="n">
+        <v>806.36</v>
+      </c>
+      <c r="G198" t="n">
+        <v>78.6333333333333</v>
+      </c>
+      <c r="H198" t="n">
+        <v>78.74666666666666</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="C199" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="D199" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="E199" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="F199" t="n">
+        <v>651.9607</v>
+      </c>
+      <c r="G199" t="n">
+        <v>78.62666666666662</v>
+      </c>
+      <c r="H199" t="n">
+        <v>78.74166666666666</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="C200" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="D200" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="E200" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="F200" t="n">
+        <v>173.759</v>
+      </c>
+      <c r="G200" t="n">
+        <v>78.60666666666663</v>
+      </c>
+      <c r="H200" t="n">
+        <v>78.75166666666665</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="C201" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="D201" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="E201" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="F201" t="n">
+        <v>114.8784</v>
+      </c>
+      <c r="G201" t="n">
+        <v>78.5733333333333</v>
+      </c>
+      <c r="H201" t="n">
+        <v>78.75999999999999</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-20 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-20 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N259"/>
+  <dimension ref="A1:M259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>120143.2215</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>120143.2215</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="J3" t="n">
         <v>77</v>
       </c>
-      <c r="K3" t="n">
-        <v>77</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>133536.2215</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="J4" t="n">
         <v>77</v>
       </c>
-      <c r="K4" t="n">
-        <v>77</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>152374.8134</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>77.2</v>
       </c>
       <c r="J5" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="K5" t="n">
         <v>77</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +603,23 @@
         <v>177141.3603</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="K6" t="n">
         <v>77</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +644,23 @@
         <v>249100.6713878481</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="K7" t="n">
         <v>77</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -710,22 +687,19 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
         <v>77</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -750,24 +724,21 @@
         <v>248819.0078878481</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
         <v>77</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -792,24 +763,21 @@
         <v>248819.0078878481</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
         <v>77</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -834,24 +802,21 @@
         <v>412116.5639878481</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
         <v>77</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -876,24 +841,21 @@
         <v>480898.9505878481</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
         <v>77</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -918,24 +880,21 @@
         <v>548491.183287848</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
         <v>77</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -960,24 +919,21 @@
         <v>582441.232987848</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
         <v>77</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1002,24 +958,21 @@
         <v>573743.953787848</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
         <v>77</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1.02487012987013</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1046,22 +999,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>77</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1088,22 +1032,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>77</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1130,22 +1065,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>77</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1172,22 +1098,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>77</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1214,22 +1131,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>77</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1256,22 +1164,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>77</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1298,22 +1197,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>77</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1340,22 +1230,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>77</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1382,22 +1263,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>77</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1424,22 +1296,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>77</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1466,22 +1329,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>77</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1508,22 +1362,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>77</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1550,22 +1395,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>77</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1592,22 +1428,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>77</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1634,22 +1461,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>77</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1676,22 +1494,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>77</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1718,22 +1527,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>77</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1760,22 +1560,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>77</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1802,22 +1593,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>77</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1844,22 +1626,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>77</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1886,22 +1659,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>77</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1928,22 +1692,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>77</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1970,22 +1725,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>77</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2012,22 +1758,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>77</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2054,22 +1791,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>77</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2096,22 +1824,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>77</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2138,22 +1857,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>77</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2180,22 +1890,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>77</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2222,22 +1923,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>77</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2264,22 +1956,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>77</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2306,22 +1989,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>77</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2348,22 +2022,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>77</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2390,22 +2055,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>77</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2432,22 +2088,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>77</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2474,22 +2121,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>77</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2516,22 +2154,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>77</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2558,22 +2187,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>77</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2600,22 +2220,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>77</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2642,22 +2253,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>77</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2684,22 +2286,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>77</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2726,22 +2319,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>77</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2768,22 +2352,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>77</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2810,22 +2385,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>77</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2852,22 +2418,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>77</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2894,22 +2451,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>77</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2936,22 +2484,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>77</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2978,22 +2517,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>77</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3020,22 +2550,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>77</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3062,22 +2583,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>77</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3104,22 +2616,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>77</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3146,22 +2649,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>77</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3188,22 +2682,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>77</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3230,22 +2715,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>77</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3272,22 +2748,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>77</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3314,22 +2781,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>77</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3356,22 +2814,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>77</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3398,22 +2847,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>77</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3440,22 +2880,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>77</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3482,22 +2913,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>77</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3524,22 +2946,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>77</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3566,22 +2979,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>77</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3608,22 +3012,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>77</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3650,22 +3045,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>77</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3692,22 +3078,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>77</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3734,22 +3111,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>77</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1.017077922077922</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3774,18 +3142,15 @@
         <v>526890.9714051433</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3810,18 +3175,15 @@
         <v>519462.2933051432</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3846,18 +3208,15 @@
         <v>520853.2933051432</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3882,18 +3241,15 @@
         <v>524586.4731051433</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3918,18 +3274,15 @@
         <v>519539.7520051433</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3954,18 +3307,15 @@
         <v>519539.7520051433</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3990,18 +3340,15 @@
         <v>538526.4795051432</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4026,18 +3373,15 @@
         <v>538526.4795051432</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4062,18 +3406,15 @@
         <v>538526.4795051432</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4098,18 +3439,15 @@
         <v>538526.4795051432</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4134,18 +3472,15 @@
         <v>538640.4804051432</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4170,18 +3505,15 @@
         <v>538640.4804051432</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4206,18 +3538,15 @@
         <v>533794.2116051433</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4242,18 +3571,15 @@
         <v>612611.6142051433</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4278,18 +3604,15 @@
         <v>612611.6142051433</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4314,18 +3637,15 @@
         <v>612611.6142051433</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4350,18 +3670,15 @@
         <v>618979.8875051433</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4386,18 +3703,15 @@
         <v>618979.8875051433</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4422,18 +3736,15 @@
         <v>620053.1714051433</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4458,18 +3769,15 @@
         <v>619096.7017051433</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4494,18 +3802,15 @@
         <v>619096.7017051433</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4530,18 +3835,15 @@
         <v>619096.7017051433</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4566,18 +3868,15 @@
         <v>599572.1988051434</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4602,18 +3901,15 @@
         <v>623305.9614051434</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4638,18 +3934,15 @@
         <v>623305.9614051434</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4676,16 +3969,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4712,16 +4002,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4748,16 +4035,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4784,16 +4068,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4820,16 +4101,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4856,16 +4134,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4892,16 +4167,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4928,16 +4200,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4964,16 +4233,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5000,16 +4266,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5036,16 +4299,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5072,16 +4332,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5108,16 +4365,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5144,16 +4398,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5180,16 +4431,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5216,16 +4464,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5252,16 +4497,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5288,16 +4530,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5324,16 +4563,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5360,16 +4596,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5396,16 +4629,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5432,16 +4662,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5468,16 +4695,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5504,16 +4728,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5540,16 +4761,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5576,16 +4794,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5612,16 +4827,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5648,16 +4860,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5684,16 +4893,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5720,16 +4926,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5756,16 +4959,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5792,16 +4992,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5828,16 +5025,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5864,16 +5058,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5900,16 +5091,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5936,16 +5124,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5972,16 +5157,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6008,16 +5190,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6044,16 +5223,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6080,16 +5256,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6116,16 +5289,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6152,16 +5322,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6188,16 +5355,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6224,16 +5388,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6260,16 +5421,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6296,16 +5454,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6332,16 +5487,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6368,16 +5520,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6404,16 +5553,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6440,16 +5586,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6476,16 +5619,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6512,16 +5652,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6548,16 +5685,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6584,16 +5718,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6620,16 +5751,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6656,16 +5784,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6692,16 +5817,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6728,16 +5850,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6764,16 +5883,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6800,16 +5916,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6836,16 +5949,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6872,16 +5982,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6908,16 +6015,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6944,16 +6048,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6980,16 +6081,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7016,16 +6114,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7052,16 +6147,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7088,16 +6180,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7124,16 +6213,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7158,18 +6244,15 @@
         <v>454112.2615051434</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7196,16 +6279,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7230,18 +6310,15 @@
         <v>477748.2181051433</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7268,16 +6345,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7304,16 +6378,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7340,16 +6411,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7374,18 +6442,15 @@
         <v>526270.5200051432</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7410,18 +6475,15 @@
         <v>529037.6550051433</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7446,18 +6508,15 @@
         <v>571376.7459051432</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7484,16 +6543,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7518,18 +6574,15 @@
         <v>571376.7459051432</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7556,16 +6609,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7590,18 +6640,15 @@
         <v>571261.5499051432</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7628,16 +6675,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7664,16 +6708,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7700,16 +6741,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>1</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7736,16 +6774,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7772,16 +6807,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>1</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7808,16 +6840,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>1</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7844,16 +6873,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>1</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7880,16 +6906,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>1</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7916,16 +6939,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>1</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7952,16 +6972,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>1</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7988,16 +7005,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8024,16 +7038,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8060,16 +7071,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8094,18 +7102,15 @@
         <v>543575.6338051429</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8132,16 +7137,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8166,18 +7168,15 @@
         <v>543585.6338051429</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8202,18 +7201,15 @@
         <v>499031.331605143</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8238,18 +7234,15 @@
         <v>510269.561305143</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8276,16 +7269,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8312,16 +7302,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8348,16 +7335,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8384,16 +7368,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8420,16 +7401,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8454,18 +7432,15 @@
         <v>491658.724105143</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8490,18 +7465,15 @@
         <v>492110.5886051431</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8526,18 +7498,15 @@
         <v>494524.7479051431</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8562,18 +7531,15 @@
         <v>495285.7788051431</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8598,18 +7564,15 @@
         <v>418350.6122051431</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8636,16 +7599,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8672,16 +7632,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8708,16 +7665,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8744,16 +7698,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8780,16 +7731,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8816,16 +7764,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8852,16 +7797,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8888,16 +7830,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8924,16 +7863,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8960,16 +7896,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8996,16 +7929,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9032,16 +7962,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9068,16 +7995,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9104,16 +8028,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9138,18 +8059,15 @@
         <v>414411.0505051431</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9176,16 +8094,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9210,18 +8125,15 @@
         <v>418808.4236051432</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9248,16 +8160,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9282,18 +8191,15 @@
         <v>376948.9329051431</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9318,18 +8224,15 @@
         <v>376948.9329051431</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9354,18 +8257,15 @@
         <v>414509.6113051431</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9392,16 +8292,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9428,16 +8325,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9464,16 +8358,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9500,16 +8391,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9536,16 +8424,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9570,18 +8455,15 @@
         <v>433189.9774051431</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9608,16 +8490,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9642,18 +8521,15 @@
         <v>487113.3849051431</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9680,16 +8556,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9714,18 +8587,15 @@
         <v>486947.3692051431</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9752,16 +8622,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9788,16 +8655,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9824,16 +8688,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9860,16 +8721,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9896,16 +8754,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9930,18 +8785,15 @@
         <v>375621.7872051431</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9968,16 +8820,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10002,18 +8851,15 @@
         <v>392390.7335051431</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10040,16 +8886,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10074,18 +8917,15 @@
         <v>401572.4167051431</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10112,16 +8952,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10148,16 +8985,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10184,18 +9018,15 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-20 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>120143.2215</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>120143.2215</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>77</v>
@@ -521,7 +521,7 @@
         <v>133536.2215</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>77</v>
@@ -562,7 +562,7 @@
         <v>152374.8134</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>77.2</v>
@@ -603,7 +603,7 @@
         <v>177141.3603</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>77.40000000000001</v>
@@ -644,7 +644,7 @@
         <v>249100.6713878481</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>77.59999999999999</v>
@@ -685,9 +685,11 @@
         <v>249074.1204878481</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>79</v>
+      </c>
       <c r="J8" t="n">
         <v>77</v>
       </c>
@@ -724,9 +726,11 @@
         <v>248819.0078878481</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>78.90000000000001</v>
+      </c>
       <c r="J9" t="n">
         <v>77</v>
       </c>
@@ -763,7 +767,7 @@
         <v>248819.0078878481</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
@@ -802,7 +806,7 @@
         <v>412116.5639878481</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
@@ -841,7 +845,7 @@
         <v>480898.9505878481</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
@@ -880,7 +884,7 @@
         <v>548491.183287848</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
@@ -919,7 +923,7 @@
         <v>582441.232987848</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
@@ -958,7 +962,7 @@
         <v>573743.953787848</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
@@ -966,11 +970,11 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.02487012987013</v>
+        <v>1</v>
       </c>
       <c r="M15" t="inlineStr"/>
     </row>
@@ -1000,8 +1004,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>77</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1033,8 +1043,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>77</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1066,8 +1082,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>77</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1099,8 +1121,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>77</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1132,8 +1160,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>77</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1165,8 +1199,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>77</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1198,8 +1238,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>77</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1231,8 +1277,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>77</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1264,8 +1316,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>77</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1297,8 +1355,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>77</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1330,8 +1394,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>77</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1363,8 +1433,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>77</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1396,8 +1472,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>77</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1429,8 +1511,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>77</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1462,8 +1550,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>77</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1495,8 +1589,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>77</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1528,8 +1628,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>77</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1561,8 +1667,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>77</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1594,8 +1706,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>77</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1627,8 +1745,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>77</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1660,8 +1784,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>77</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1693,8 +1823,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>77</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1726,8 +1862,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>77</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1759,8 +1901,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>77</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1792,8 +1940,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>77</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1825,8 +1979,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>77</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1858,8 +2018,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>77</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1891,8 +2057,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>77</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1924,8 +2096,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>77</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1957,8 +2135,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>77</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1990,8 +2174,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>77</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2023,8 +2213,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>77</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2056,8 +2252,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>77</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2089,8 +2291,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>77</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2122,8 +2330,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>77</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2155,8 +2369,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>77</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2185,13 +2405,19 @@
         <v>479317.1225051432</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>77</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>0.9898051948051947</v>
       </c>
       <c r="M52" t="inlineStr"/>
     </row>
@@ -2251,7 +2477,7 @@
         <v>483258.1043051432</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2284,7 +2510,7 @@
         <v>482285.4782051432</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2317,7 +2543,7 @@
         <v>498800.4741051432</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -3142,7 +3368,7 @@
         <v>526890.9714051433</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3175,7 +3401,7 @@
         <v>519462.2933051432</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3208,7 +3434,7 @@
         <v>520853.2933051432</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3241,7 +3467,7 @@
         <v>524586.4731051433</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3274,7 +3500,7 @@
         <v>519539.7520051433</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3307,7 +3533,7 @@
         <v>519539.7520051433</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3340,7 +3566,7 @@
         <v>538526.4795051432</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3373,7 +3599,7 @@
         <v>538526.4795051432</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3406,7 +3632,7 @@
         <v>538526.4795051432</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3439,7 +3665,7 @@
         <v>538526.4795051432</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3472,7 +3698,7 @@
         <v>538640.4804051432</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3505,7 +3731,7 @@
         <v>538640.4804051432</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3538,7 +3764,7 @@
         <v>533794.2116051433</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3571,7 +3797,7 @@
         <v>612611.6142051433</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3604,7 +3830,7 @@
         <v>612611.6142051433</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3637,7 +3863,7 @@
         <v>612611.6142051433</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3670,7 +3896,7 @@
         <v>618979.8875051433</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3703,7 +3929,7 @@
         <v>618979.8875051433</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3736,7 +3962,7 @@
         <v>620053.1714051433</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3769,7 +3995,7 @@
         <v>619096.7017051433</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3802,7 +4028,7 @@
         <v>619096.7017051433</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3835,7 +4061,7 @@
         <v>619096.7017051433</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3868,7 +4094,7 @@
         <v>599572.1988051434</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3901,7 +4127,7 @@
         <v>623305.9614051434</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3934,7 +4160,7 @@
         <v>623305.9614051434</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3967,7 +4193,7 @@
         <v>611852.5869051433</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4000,7 +4226,7 @@
         <v>611852.5869051433</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4033,7 +4259,7 @@
         <v>611981.5869051433</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4066,7 +4292,7 @@
         <v>610917.4690051434</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4099,7 +4325,7 @@
         <v>703815.5614051434</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4132,7 +4358,7 @@
         <v>632529.4733051434</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4165,7 +4391,7 @@
         <v>632529.4733051434</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4198,7 +4424,7 @@
         <v>631628.0639051434</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4231,7 +4457,7 @@
         <v>630993.5462051434</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4264,7 +4490,7 @@
         <v>630993.5462051434</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4297,7 +4523,7 @@
         <v>621971.3418051434</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4330,7 +4556,7 @@
         <v>621971.3418051434</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4363,7 +4589,7 @@
         <v>503961.0010051434</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4396,7 +4622,7 @@
         <v>503857.5858051434</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4429,7 +4655,7 @@
         <v>503857.5858051434</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4462,7 +4688,7 @@
         <v>503234.7068051434</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4495,7 +4721,7 @@
         <v>503712.0629051434</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4528,7 +4754,7 @@
         <v>503712.0629051434</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4561,7 +4787,7 @@
         <v>503420.3992051434</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4594,7 +4820,7 @@
         <v>503420.3992051434</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4693,7 +4919,7 @@
         <v>493761.3199051434</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4726,7 +4952,7 @@
         <v>493729.6984051434</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4759,7 +4985,7 @@
         <v>493876.6984051434</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4792,7 +5018,7 @@
         <v>493754.5766051434</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4825,7 +5051,7 @@
         <v>493754.5766051434</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4858,7 +5084,7 @@
         <v>500198.2766051434</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4891,7 +5117,7 @@
         <v>500051.0159051434</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4924,7 +5150,7 @@
         <v>500256.0159051434</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4957,7 +5183,7 @@
         <v>500461.0159051434</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4990,7 +5216,7 @@
         <v>497428.5925051434</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5023,7 +5249,7 @@
         <v>496779.2418051434</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5056,7 +5282,7 @@
         <v>469074.9629051434</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5089,7 +5315,7 @@
         <v>449074.9629051434</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5122,7 +5348,7 @@
         <v>449074.9629051434</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -6244,7 +6470,7 @@
         <v>454112.2615051434</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6310,7 +6536,7 @@
         <v>477748.2181051433</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6442,7 +6668,7 @@
         <v>526270.5200051432</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6475,7 +6701,7 @@
         <v>529037.6550051433</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6508,7 +6734,7 @@
         <v>571376.7459051432</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6541,7 +6767,7 @@
         <v>571376.7459051432</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6574,7 +6800,7 @@
         <v>571376.7459051432</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6607,7 +6833,7 @@
         <v>571376.7459051432</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6640,7 +6866,7 @@
         <v>571261.5499051432</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6904,7 +7130,7 @@
         <v>561974.3798051431</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6937,7 +7163,7 @@
         <v>557708.2897051431</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6970,7 +7196,7 @@
         <v>540167.9412051431</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7003,7 +7229,7 @@
         <v>539776.8579051431</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7036,7 +7262,7 @@
         <v>542359.785705143</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7069,7 +7295,7 @@
         <v>542366.785705143</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7102,7 +7328,7 @@
         <v>543575.6338051429</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7135,7 +7361,7 @@
         <v>543585.6338051429</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7168,7 +7394,7 @@
         <v>543585.6338051429</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7201,7 +7427,7 @@
         <v>499031.331605143</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7234,7 +7460,7 @@
         <v>510269.561305143</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7267,7 +7493,7 @@
         <v>513752.047905143</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7300,7 +7526,7 @@
         <v>511913.438405143</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7333,7 +7559,7 @@
         <v>487052.128805143</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7366,7 +7592,7 @@
         <v>485731.894105143</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7399,7 +7625,7 @@
         <v>478104.027605143</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7432,7 +7658,7 @@
         <v>491658.724105143</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7465,7 +7691,7 @@
         <v>492110.5886051431</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7498,7 +7724,7 @@
         <v>494524.7479051431</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7531,7 +7757,7 @@
         <v>495285.7788051431</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7564,7 +7790,7 @@
         <v>418350.6122051431</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7630,7 +7856,7 @@
         <v>355229.0722051431</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7663,7 +7889,7 @@
         <v>422688.8902051431</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7861,7 +8087,7 @@
         <v>412028.8486051431</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7894,7 +8120,7 @@
         <v>412028.8486051431</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7927,7 +8153,7 @@
         <v>415866.8486051431</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7960,7 +8186,7 @@
         <v>413463.4932051431</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7993,7 +8219,7 @@
         <v>413463.4932051431</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8026,7 +8252,7 @@
         <v>413463.4932051431</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8059,7 +8285,7 @@
         <v>414411.0505051431</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8092,7 +8318,7 @@
         <v>414211.0505051431</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8125,7 +8351,7 @@
         <v>418808.4236051432</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8158,7 +8384,7 @@
         <v>419450.4236051432</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8191,7 +8417,7 @@
         <v>376948.9329051431</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8224,7 +8450,7 @@
         <v>376948.9329051431</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8257,7 +8483,7 @@
         <v>414509.6113051431</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8290,7 +8516,7 @@
         <v>414488.5360051431</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8323,7 +8549,7 @@
         <v>414664.2281051431</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8356,7 +8582,7 @@
         <v>414664.2281051431</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8389,7 +8615,7 @@
         <v>413121.8252051431</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8422,7 +8648,7 @@
         <v>433399.9774051431</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8455,7 +8681,7 @@
         <v>433189.9774051431</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8488,7 +8714,7 @@
         <v>439110.9774051431</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8521,7 +8747,7 @@
         <v>487113.3849051431</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8554,7 +8780,7 @@
         <v>486947.3692051431</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8587,7 +8813,7 @@
         <v>486947.3692051431</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8620,7 +8846,7 @@
         <v>411400.0069051431</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8653,7 +8879,7 @@
         <v>384772.8168051431</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8686,7 +8912,7 @@
         <v>397659.8168051431</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8719,7 +8945,7 @@
         <v>375621.7872051431</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8752,7 +8978,7 @@
         <v>375621.7872051431</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8785,7 +9011,7 @@
         <v>375621.7872051431</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8818,7 +9044,7 @@
         <v>413828.0933051431</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8851,7 +9077,7 @@
         <v>392390.7335051431</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8884,7 +9110,7 @@
         <v>401572.4167051431</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8917,7 +9143,7 @@
         <v>401572.4167051431</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8950,7 +9176,7 @@
         <v>400920.4560051431</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8983,7 +9209,7 @@
         <v>401094.2150051431</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9016,7 +9242,7 @@
         <v>401209.0934051431</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9027,6 +9253,6 @@
       <c r="M259" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-20 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>120143.2215</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>120143.2215</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>77</v>
-      </c>
-      <c r="J3" t="n">
-        <v>77</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -526,9 +522,7 @@
       <c r="I4" t="n">
         <v>77</v>
       </c>
-      <c r="J4" t="n">
-        <v>77</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -567,9 +561,7 @@
       <c r="I5" t="n">
         <v>77.2</v>
       </c>
-      <c r="J5" t="n">
-        <v>77</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -608,9 +600,7 @@
       <c r="I6" t="n">
         <v>77.40000000000001</v>
       </c>
-      <c r="J6" t="n">
-        <v>77</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -649,9 +639,7 @@
       <c r="I7" t="n">
         <v>77.59999999999999</v>
       </c>
-      <c r="J7" t="n">
-        <v>77</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -685,14 +673,10 @@
         <v>249074.1204878481</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>79</v>
-      </c>
-      <c r="J8" t="n">
-        <v>77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -726,14 +710,10 @@
         <v>248819.0078878481</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="J9" t="n">
-        <v>77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -770,9 +750,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>77</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -809,9 +787,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>77</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -848,9 +824,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>77</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -887,9 +861,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>77</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -926,9 +898,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>77</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -965,9 +935,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>77</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1004,9 +972,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>77</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1043,9 +1009,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>77</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1082,9 +1046,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>77</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1121,9 +1083,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>77</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1160,9 +1120,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>77</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1199,9 +1157,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>77</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1238,9 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>77</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1277,9 +1231,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>77</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1316,9 +1268,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>77</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1355,9 +1305,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>77</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1394,9 +1342,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>77</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1433,9 +1379,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>77</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1472,9 +1416,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>77</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1511,9 +1453,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>77</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1550,9 +1490,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>77</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1589,9 +1527,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>77</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1628,9 +1564,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>77</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1667,9 +1601,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>77</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1706,9 +1638,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>77</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1745,9 +1675,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>77</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1784,9 +1712,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>77</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1823,9 +1749,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>77</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1862,9 +1786,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>77</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1898,20 +1820,16 @@
         <v>453504.456487848</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>77</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -1937,17 +1855,11 @@
         <v>453504.456487848</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>77</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1979,14 +1891,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>77</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2015,17 +1921,11 @@
         <v>443511.459987848</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>77</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2054,17 +1954,11 @@
         <v>444172.501587848</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>77</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2096,14 +1990,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>77</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2135,14 +2023,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>77</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2174,14 +2056,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>77</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2213,14 +2089,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>77</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2252,14 +2122,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>77</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2291,14 +2155,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>77</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2330,14 +2188,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>77</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2369,14 +2221,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>77</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2405,19 +2251,13 @@
         <v>479317.1225051432</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>77</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>0.9898051948051947</v>
+        <v>1</v>
       </c>
       <c r="M52" t="inlineStr"/>
     </row>
@@ -2477,7 +2317,7 @@
         <v>483258.1043051432</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2510,7 +2350,7 @@
         <v>482285.4782051432</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2543,7 +2383,7 @@
         <v>498800.4741051432</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -3665,7 +3505,7 @@
         <v>538526.4795051432</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3698,7 +3538,7 @@
         <v>538640.4804051432</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3731,7 +3571,7 @@
         <v>538640.4804051432</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3764,7 +3604,7 @@
         <v>533794.2116051433</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3830,7 +3670,7 @@
         <v>612611.6142051433</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3863,7 +3703,7 @@
         <v>612611.6142051433</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3896,7 +3736,7 @@
         <v>618979.8875051433</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3929,7 +3769,7 @@
         <v>618979.8875051433</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3962,7 +3802,7 @@
         <v>620053.1714051433</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3995,7 +3835,7 @@
         <v>619096.7017051433</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4028,7 +3868,7 @@
         <v>619096.7017051433</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4061,7 +3901,7 @@
         <v>619096.7017051433</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4094,7 +3934,7 @@
         <v>599572.1988051434</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4127,7 +3967,7 @@
         <v>623305.9614051434</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4160,7 +4000,7 @@
         <v>623305.9614051434</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4193,7 +4033,7 @@
         <v>611852.5869051433</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4226,7 +4066,7 @@
         <v>611852.5869051433</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4259,7 +4099,7 @@
         <v>611981.5869051433</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4292,7 +4132,7 @@
         <v>610917.4690051434</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4325,7 +4165,7 @@
         <v>703815.5614051434</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4358,7 +4198,7 @@
         <v>632529.4733051434</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4391,7 +4231,7 @@
         <v>632529.4733051434</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4424,7 +4264,7 @@
         <v>631628.0639051434</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4457,7 +4297,7 @@
         <v>630993.5462051434</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4490,7 +4330,7 @@
         <v>630993.5462051434</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4523,7 +4363,7 @@
         <v>621971.3418051434</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4556,7 +4396,7 @@
         <v>621971.3418051434</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4589,7 +4429,7 @@
         <v>503961.0010051434</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4622,7 +4462,7 @@
         <v>503857.5858051434</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4655,7 +4495,7 @@
         <v>503857.5858051434</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4688,7 +4528,7 @@
         <v>503234.7068051434</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4721,7 +4561,7 @@
         <v>503712.0629051434</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4754,7 +4594,7 @@
         <v>503712.0629051434</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4787,7 +4627,7 @@
         <v>503420.3992051434</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4820,7 +4660,7 @@
         <v>503420.3992051434</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4919,7 +4759,7 @@
         <v>493761.3199051434</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4952,7 +4792,7 @@
         <v>493729.6984051434</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4985,7 +4825,7 @@
         <v>493876.6984051434</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5018,7 +4858,7 @@
         <v>493754.5766051434</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5051,7 +4891,7 @@
         <v>493754.5766051434</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5084,7 +4924,7 @@
         <v>500198.2766051434</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5117,7 +4957,7 @@
         <v>500051.0159051434</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5150,7 +4990,7 @@
         <v>500256.0159051434</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5183,7 +5023,7 @@
         <v>500461.0159051434</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5216,7 +5056,7 @@
         <v>497428.5925051434</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5249,7 +5089,7 @@
         <v>496779.2418051434</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5282,7 +5122,7 @@
         <v>469074.9629051434</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5315,7 +5155,7 @@
         <v>449074.9629051434</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5348,7 +5188,7 @@
         <v>449074.9629051434</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -6668,7 +6508,7 @@
         <v>526270.5200051432</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6734,7 +6574,7 @@
         <v>571376.7459051432</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6767,7 +6607,7 @@
         <v>571376.7459051432</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6800,7 +6640,7 @@
         <v>571376.7459051432</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6833,7 +6673,7 @@
         <v>571376.7459051432</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7130,7 +6970,7 @@
         <v>561974.3798051431</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7163,7 +7003,7 @@
         <v>557708.2897051431</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7196,7 +7036,7 @@
         <v>540167.9412051431</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7229,7 +7069,7 @@
         <v>539776.8579051431</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7262,7 +7102,7 @@
         <v>542359.785705143</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7295,7 +7135,7 @@
         <v>542366.785705143</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7328,7 +7168,7 @@
         <v>543575.6338051429</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7361,7 +7201,7 @@
         <v>543585.6338051429</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7394,7 +7234,7 @@
         <v>543585.6338051429</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7427,7 +7267,7 @@
         <v>499031.331605143</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7460,7 +7300,7 @@
         <v>510269.561305143</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7493,7 +7333,7 @@
         <v>513752.047905143</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7526,7 +7366,7 @@
         <v>511913.438405143</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7559,7 +7399,7 @@
         <v>487052.128805143</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7592,7 +7432,7 @@
         <v>485731.894105143</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7625,7 +7465,7 @@
         <v>478104.027605143</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7658,7 +7498,7 @@
         <v>491658.724105143</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7691,7 +7531,7 @@
         <v>492110.5886051431</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7856,7 +7696,7 @@
         <v>355229.0722051431</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7889,7 +7729,7 @@
         <v>422688.8902051431</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8087,7 +7927,7 @@
         <v>412028.8486051431</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8120,7 +7960,7 @@
         <v>412028.8486051431</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8153,7 +7993,7 @@
         <v>415866.8486051431</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8186,7 +8026,7 @@
         <v>413463.4932051431</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8219,7 +8059,7 @@
         <v>413463.4932051431</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8252,7 +8092,7 @@
         <v>413463.4932051431</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8285,7 +8125,7 @@
         <v>414411.0505051431</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8318,7 +8158,7 @@
         <v>414211.0505051431</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8351,7 +8191,7 @@
         <v>418808.4236051432</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8384,7 +8224,7 @@
         <v>419450.4236051432</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8417,7 +8257,7 @@
         <v>376948.9329051431</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8450,7 +8290,7 @@
         <v>376948.9329051431</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8483,7 +8323,7 @@
         <v>414509.6113051431</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8516,7 +8356,7 @@
         <v>414488.5360051431</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8549,7 +8389,7 @@
         <v>414664.2281051431</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8582,7 +8422,7 @@
         <v>414664.2281051431</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8615,7 +8455,7 @@
         <v>413121.8252051431</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8648,7 +8488,7 @@
         <v>433399.9774051431</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8681,7 +8521,7 @@
         <v>433189.9774051431</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8714,7 +8554,7 @@
         <v>439110.9774051431</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8747,7 +8587,7 @@
         <v>487113.3849051431</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8780,7 +8620,7 @@
         <v>486947.3692051431</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8813,7 +8653,7 @@
         <v>486947.3692051431</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8846,7 +8686,7 @@
         <v>411400.0069051431</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8879,7 +8719,7 @@
         <v>384772.8168051431</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8912,7 +8752,7 @@
         <v>397659.8168051431</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8945,7 +8785,7 @@
         <v>375621.7872051431</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8978,7 +8818,7 @@
         <v>375621.7872051431</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9011,7 +8851,7 @@
         <v>375621.7872051431</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9044,7 +8884,7 @@
         <v>413828.0933051431</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9077,7 +8917,7 @@
         <v>392390.7335051431</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9110,7 +8950,7 @@
         <v>401572.4167051431</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9143,7 +8983,7 @@
         <v>401572.4167051431</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9176,7 +9016,7 @@
         <v>400920.4560051431</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9209,7 +9049,7 @@
         <v>401094.2150051431</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9242,7 +9082,7 @@
         <v>401209.0934051431</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9253,6 +9093,6 @@
       <c r="M259" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-20 BackTest ENJ.xlsx
@@ -451,7 +451,7 @@
         <v>120143.2215</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>120143.2215</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>77</v>
+      </c>
+      <c r="J3" t="n">
+        <v>77</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -522,7 +526,9 @@
       <c r="I4" t="n">
         <v>77</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>77</v>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -561,7 +567,9 @@
       <c r="I5" t="n">
         <v>77.2</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>77</v>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -600,7 +608,9 @@
       <c r="I6" t="n">
         <v>77.40000000000001</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>77</v>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -639,7 +649,9 @@
       <c r="I7" t="n">
         <v>77.59999999999999</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>77</v>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -676,7 +688,9 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>77</v>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -713,7 +727,9 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>77</v>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -750,7 +766,9 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>77</v>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -787,7 +805,9 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>77</v>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -824,7 +844,9 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>77</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -861,7 +883,9 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>77</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -898,7 +922,9 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>77</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -935,7 +961,9 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>77</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -972,7 +1000,9 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>77</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1009,7 +1039,9 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>77</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1046,7 +1078,9 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>77</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1083,7 +1117,9 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>77</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1120,7 +1156,9 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>77</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1157,7 +1195,9 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>77</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1194,7 +1234,9 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>77</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1231,7 +1273,9 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>77</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1268,7 +1312,9 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>77</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1305,7 +1351,9 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>77</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1342,7 +1390,9 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>77</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1379,7 +1429,9 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>77</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1416,7 +1468,9 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>77</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1453,7 +1507,9 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>77</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1490,7 +1546,9 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>77</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1527,7 +1585,9 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>77</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1564,7 +1624,9 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>77</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1601,7 +1663,9 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>77</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1638,7 +1702,9 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>77</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1675,7 +1741,9 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>77</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1712,7 +1780,9 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>77</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1749,7 +1819,9 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>77</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1786,7 +1858,9 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>77</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1820,16 +1894,20 @@
         <v>453504.456487848</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>77</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
       <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -1855,11 +1933,17 @@
         <v>453504.456487848</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>77</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1891,8 +1975,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>77</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1921,11 +2011,17 @@
         <v>443511.459987848</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>77</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1954,11 +2050,17 @@
         <v>444172.501587848</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>77</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1990,8 +2092,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>77</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2023,8 +2131,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>77</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2056,8 +2170,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>77</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2089,8 +2209,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>77</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2122,8 +2248,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>77</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2155,8 +2287,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>77</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2188,8 +2326,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>77</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2221,8 +2365,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>77</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2254,8 +2404,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>77</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2287,8 +2443,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>77</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2320,8 +2482,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>77</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2353,8 +2521,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>77</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2386,8 +2560,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>77</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2419,8 +2599,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>77</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2452,8 +2638,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>77</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2485,8 +2677,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>77</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2518,8 +2716,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>77</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2551,8 +2755,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>77</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2584,8 +2794,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>77</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2617,8 +2833,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>77</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2650,8 +2872,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>77</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2683,8 +2911,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>77</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2716,8 +2950,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>77</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2749,8 +2989,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>77</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2782,8 +3028,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>77</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2815,8 +3067,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>77</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2848,8 +3106,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>77</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2881,8 +3145,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>77</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2914,8 +3184,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>77</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2947,8 +3223,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>77</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2980,8 +3262,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>77</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3013,8 +3301,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>77</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3046,8 +3340,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>77</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3079,8 +3379,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>77</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3112,8 +3418,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>77</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3145,8 +3457,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>77</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3178,8 +3496,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>77</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3211,8 +3535,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>77</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3244,8 +3574,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>77</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3277,8 +3613,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>77</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3310,8 +3652,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>77</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3343,8 +3691,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>77</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3376,8 +3730,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>77</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3409,8 +3769,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>77</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3442,8 +3808,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>77</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3475,8 +3847,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>77</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3505,13 +3883,19 @@
         <v>538526.4795051432</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>77</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L90" t="n">
-        <v>1</v>
+        <v>1.018376623376623</v>
       </c>
       <c r="M90" t="inlineStr"/>
     </row>
@@ -3538,7 +3922,7 @@
         <v>538640.4804051432</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3571,7 +3955,7 @@
         <v>538640.4804051432</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3604,7 +3988,7 @@
         <v>533794.2116051433</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3670,7 +4054,7 @@
         <v>612611.6142051433</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3736,7 +4120,7 @@
         <v>618979.8875051433</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3769,7 +4153,7 @@
         <v>618979.8875051433</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3802,7 +4186,7 @@
         <v>620053.1714051433</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3835,7 +4219,7 @@
         <v>619096.7017051433</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3868,7 +4252,7 @@
         <v>619096.7017051433</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3901,7 +4285,7 @@
         <v>619096.7017051433</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3934,7 +4318,7 @@
         <v>599572.1988051434</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3967,7 +4351,7 @@
         <v>623305.9614051434</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4000,7 +4384,7 @@
         <v>623305.9614051434</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4033,7 +4417,7 @@
         <v>611852.5869051433</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4066,7 +4450,7 @@
         <v>611852.5869051433</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4099,7 +4483,7 @@
         <v>611981.5869051433</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4132,7 +4516,7 @@
         <v>610917.4690051434</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4165,7 +4549,7 @@
         <v>703815.5614051434</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4198,7 +4582,7 @@
         <v>632529.4733051434</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4231,7 +4615,7 @@
         <v>632529.4733051434</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -6541,7 +6925,7 @@
         <v>529037.6550051433</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6574,7 +6958,7 @@
         <v>571376.7459051432</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6607,7 +6991,7 @@
         <v>571376.7459051432</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6640,7 +7024,7 @@
         <v>571376.7459051432</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6673,7 +7057,7 @@
         <v>571376.7459051432</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6706,7 +7090,7 @@
         <v>571261.5499051432</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6739,7 +7123,7 @@
         <v>571261.5499051432</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6772,7 +7156,7 @@
         <v>585688.1750051432</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6805,7 +7189,7 @@
         <v>599424.1750051432</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6838,7 +7222,7 @@
         <v>599424.1750051432</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6871,7 +7255,7 @@
         <v>599424.1750051432</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6904,7 +7288,7 @@
         <v>597789.9325051431</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6937,7 +7321,7 @@
         <v>561974.3798051431</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6970,7 +7354,7 @@
         <v>561974.3798051431</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7003,7 +7387,7 @@
         <v>557708.2897051431</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7036,7 +7420,7 @@
         <v>540167.9412051431</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7069,7 +7453,7 @@
         <v>539776.8579051431</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7201,7 +7585,7 @@
         <v>543585.6338051429</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7234,7 +7618,7 @@
         <v>543585.6338051429</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7267,7 +7651,7 @@
         <v>499031.331605143</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7300,7 +7684,7 @@
         <v>510269.561305143</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7333,7 +7717,7 @@
         <v>513752.047905143</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7366,7 +7750,7 @@
         <v>511913.438405143</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7399,7 +7783,7 @@
         <v>487052.128805143</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7432,7 +7816,7 @@
         <v>485731.894105143</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7498,7 +7882,7 @@
         <v>491658.724105143</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7531,7 +7915,7 @@
         <v>492110.5886051431</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7564,7 +7948,7 @@
         <v>494524.7479051431</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7597,7 +7981,7 @@
         <v>495285.7788051431</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7630,7 +8014,7 @@
         <v>418350.6122051431</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7663,7 +8047,7 @@
         <v>357870.2494051431</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>

--- a/BackTest/2019-11-20 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-20 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M259"/>
+  <dimension ref="A1:L259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>8498.9764</v>
       </c>
       <c r="G2" t="n">
-        <v>120143.2215</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>2500</v>
       </c>
       <c r="G3" t="n">
-        <v>120143.2215</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="I3" t="n">
         <v>77</v>
       </c>
-      <c r="J3" t="n">
-        <v>77</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>13393</v>
       </c>
       <c r="G4" t="n">
-        <v>133536.2215</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="I4" t="n">
         <v>77</v>
       </c>
-      <c r="J4" t="n">
-        <v>77</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,21 @@
         <v>18838.5919</v>
       </c>
       <c r="G5" t="n">
-        <v>152374.8134</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="J5" t="n">
         <v>77</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,26 +581,21 @@
         <v>24766.5469</v>
       </c>
       <c r="G6" t="n">
-        <v>177141.3603</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="J6" t="n">
         <v>77</v>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,26 +617,21 @@
         <v>71959.31108784809</v>
       </c>
       <c r="G7" t="n">
-        <v>249100.6713878481</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="J7" t="n">
         <v>77</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,24 +653,21 @@
         <v>26.5509</v>
       </c>
       <c r="G8" t="n">
-        <v>249074.1204878481</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
         <v>77</v>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -721,24 +689,21 @@
         <v>255.1126</v>
       </c>
       <c r="G9" t="n">
-        <v>248819.0078878481</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
         <v>77</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -760,24 +725,21 @@
         <v>141556.0899</v>
       </c>
       <c r="G10" t="n">
-        <v>248819.0078878481</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
         <v>77</v>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -799,24 +761,21 @@
         <v>163297.5561</v>
       </c>
       <c r="G11" t="n">
-        <v>412116.5639878481</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
         <v>77</v>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -838,24 +797,21 @@
         <v>68782.3866</v>
       </c>
       <c r="G12" t="n">
-        <v>480898.9505878481</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
         <v>77</v>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -877,24 +833,21 @@
         <v>67592.23269999999</v>
       </c>
       <c r="G13" t="n">
-        <v>548491.183287848</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
         <v>77</v>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -916,24 +869,21 @@
         <v>33950.0497</v>
       </c>
       <c r="G14" t="n">
-        <v>582441.232987848</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
         <v>77</v>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -955,24 +905,21 @@
         <v>8697.279200000001</v>
       </c>
       <c r="G15" t="n">
-        <v>573743.953787848</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
         <v>77</v>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1.02487012987013</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -994,24 +941,15 @@
         <v>13761.9203</v>
       </c>
       <c r="G16" t="n">
-        <v>573743.953787848</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>77</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1033,24 +971,15 @@
         <v>24538.4637</v>
       </c>
       <c r="G17" t="n">
-        <v>573743.953787848</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>77</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1072,24 +1001,15 @@
         <v>3695.3116</v>
       </c>
       <c r="G18" t="n">
-        <v>573743.953787848</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>77</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1111,24 +1031,15 @@
         <v>3139.707</v>
       </c>
       <c r="G19" t="n">
-        <v>570604.246787848</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>77</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1150,24 +1061,15 @@
         <v>4280.7825</v>
       </c>
       <c r="G20" t="n">
-        <v>566323.464287848</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>77</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1189,24 +1091,15 @@
         <v>10454.343</v>
       </c>
       <c r="G21" t="n">
-        <v>566323.464287848</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>77</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1228,24 +1121,15 @@
         <v>184.0884</v>
       </c>
       <c r="G22" t="n">
-        <v>566139.375887848</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>77</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1267,24 +1151,15 @@
         <v>419.211</v>
       </c>
       <c r="G23" t="n">
-        <v>566558.586887848</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>77</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1306,24 +1181,15 @@
         <v>2607.7133</v>
       </c>
       <c r="G24" t="n">
-        <v>563950.873587848</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>77</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1345,24 +1211,15 @@
         <v>20.9782</v>
       </c>
       <c r="G25" t="n">
-        <v>563971.851787848</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>77</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1384,24 +1241,15 @@
         <v>4975.2234</v>
       </c>
       <c r="G26" t="n">
-        <v>568947.0751878481</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>77</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1423,24 +1271,15 @@
         <v>574.9999</v>
       </c>
       <c r="G27" t="n">
-        <v>568372.075287848</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>77</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1462,24 +1301,15 @@
         <v>22.854</v>
       </c>
       <c r="G28" t="n">
-        <v>568394.9292878481</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>77</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1501,24 +1331,15 @@
         <v>126.5628</v>
       </c>
       <c r="G29" t="n">
-        <v>568394.9292878481</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>77</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1540,24 +1361,15 @@
         <v>40</v>
       </c>
       <c r="G30" t="n">
-        <v>568354.9292878481</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>77</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1579,24 +1391,15 @@
         <v>14955.2905</v>
       </c>
       <c r="G31" t="n">
-        <v>553399.6387878481</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>77</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1618,24 +1421,15 @@
         <v>0.0001</v>
       </c>
       <c r="G32" t="n">
-        <v>553399.638887848</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>77</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1657,24 +1451,15 @@
         <v>7009.7469</v>
       </c>
       <c r="G33" t="n">
-        <v>560409.385787848</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>77</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1696,24 +1481,15 @@
         <v>583.514</v>
       </c>
       <c r="G34" t="n">
-        <v>559825.8717878481</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>77</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1735,24 +1511,15 @@
         <v>10014.694</v>
       </c>
       <c r="G35" t="n">
-        <v>549811.177787848</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>77</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1774,24 +1541,15 @@
         <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>549821.177787848</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>77</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1813,24 +1571,15 @@
         <v>70913.49559999999</v>
       </c>
       <c r="G37" t="n">
-        <v>478907.682187848</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>77</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1852,24 +1601,15 @@
         <v>37863.0253</v>
       </c>
       <c r="G38" t="n">
-        <v>478907.682187848</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>77</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1891,24 +1631,15 @@
         <v>25403.2257</v>
       </c>
       <c r="G39" t="n">
-        <v>453504.456487848</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>77</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1930,24 +1661,15 @@
         <v>7783.848</v>
       </c>
       <c r="G40" t="n">
-        <v>453504.456487848</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>77</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1969,24 +1691,19 @@
         <v>1261.075</v>
       </c>
       <c r="G41" t="n">
-        <v>453504.456487848</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>77</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>77.2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2008,24 +1725,23 @@
         <v>9992.996499999999</v>
       </c>
       <c r="G42" t="n">
-        <v>443511.459987848</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>77</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>77.2</v>
+      </c>
+      <c r="I42" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2047,24 +1763,23 @@
         <v>661.0416</v>
       </c>
       <c r="G43" t="n">
-        <v>444172.501587848</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>77</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>76.7</v>
+      </c>
+      <c r="I43" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2086,24 +1801,23 @@
         <v>506.5104</v>
       </c>
       <c r="G44" t="n">
-        <v>444172.501587848</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>77</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>76.8</v>
+      </c>
+      <c r="I44" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2125,24 +1839,21 @@
         <v>548.6263</v>
       </c>
       <c r="G45" t="n">
-        <v>443623.875287848</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>77</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2164,24 +1875,21 @@
         <v>115.9209</v>
       </c>
       <c r="G46" t="n">
-        <v>443739.796187848</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>77</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2203,24 +1911,21 @@
         <v>16877.3071</v>
       </c>
       <c r="G47" t="n">
-        <v>460617.103287848</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>77</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2242,24 +1947,21 @@
         <v>11851.9367</v>
       </c>
       <c r="G48" t="n">
-        <v>448765.166587848</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>77</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2281,24 +1983,21 @@
         <v>12281.553</v>
       </c>
       <c r="G49" t="n">
-        <v>461046.719587848</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>77</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2320,24 +2019,21 @@
         <v>114.3872</v>
       </c>
       <c r="G50" t="n">
-        <v>460932.332387848</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>77</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2359,24 +2055,23 @@
         <v>18939.32431729519</v>
       </c>
       <c r="G51" t="n">
-        <v>479871.6567051432</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>77</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>76.5</v>
+      </c>
+      <c r="I51" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2398,24 +2093,23 @@
         <v>554.5342000000001</v>
       </c>
       <c r="G52" t="n">
-        <v>479317.1225051432</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>77</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>76.90000000000001</v>
+      </c>
+      <c r="I52" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2437,24 +2131,23 @@
         <v>3940.9818</v>
       </c>
       <c r="G53" t="n">
-        <v>483258.1043051432</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>77</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>76.59999999999999</v>
+      </c>
+      <c r="I53" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2476,24 +2169,23 @@
         <v>4084.3116</v>
       </c>
       <c r="G54" t="n">
-        <v>483258.1043051432</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>77</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>76.7</v>
+      </c>
+      <c r="I54" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2515,24 +2207,23 @@
         <v>972.6261</v>
       </c>
       <c r="G55" t="n">
-        <v>482285.4782051432</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>77</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>76.7</v>
+      </c>
+      <c r="I55" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2554,24 +2245,23 @@
         <v>16514.9959</v>
       </c>
       <c r="G56" t="n">
-        <v>498800.4741051432</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>77</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>76.59999999999999</v>
+      </c>
+      <c r="I56" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2593,24 +2283,23 @@
         <v>4151.23</v>
       </c>
       <c r="G57" t="n">
-        <v>494649.2441051432</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>77</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>76.7</v>
+      </c>
+      <c r="I57" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2632,24 +2321,23 @@
         <v>14440.9257</v>
       </c>
       <c r="G58" t="n">
-        <v>509090.1698051432</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>77</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>76.5</v>
+      </c>
+      <c r="I58" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2671,24 +2359,23 @@
         <v>696.8917</v>
       </c>
       <c r="G59" t="n">
-        <v>508393.2781051432</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>77</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>76.8</v>
+      </c>
+      <c r="I59" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2710,24 +2397,23 @@
         <v>1388.6898</v>
       </c>
       <c r="G60" t="n">
-        <v>509781.9679051432</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>77</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>76.2</v>
+      </c>
+      <c r="I60" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2749,24 +2435,23 @@
         <v>20.7553</v>
       </c>
       <c r="G61" t="n">
-        <v>509802.7232051432</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>77</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>76.8</v>
+      </c>
+      <c r="I61" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2788,24 +2473,23 @@
         <v>119.3704</v>
       </c>
       <c r="G62" t="n">
-        <v>509683.3528051432</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>77</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>77.09999999999999</v>
+      </c>
+      <c r="I62" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2827,24 +2511,23 @@
         <v>13813.8968</v>
       </c>
       <c r="G63" t="n">
-        <v>523497.2496051432</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>77</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>76.59999999999999</v>
+      </c>
+      <c r="I63" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2866,24 +2549,23 @@
         <v>2000</v>
       </c>
       <c r="G64" t="n">
-        <v>525497.2496051432</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>77</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>77.09999999999999</v>
+      </c>
+      <c r="I64" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2905,24 +2587,23 @@
         <v>32535.4712</v>
       </c>
       <c r="G65" t="n">
-        <v>492961.7784051432</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>77</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>77.2</v>
+      </c>
+      <c r="I65" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2944,24 +2625,23 @@
         <v>13006.9115</v>
       </c>
       <c r="G66" t="n">
-        <v>492961.7784051432</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>77</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>76.90000000000001</v>
+      </c>
+      <c r="I66" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2983,24 +2663,23 @@
         <v>3657.6817</v>
       </c>
       <c r="G67" t="n">
-        <v>496619.4601051432</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>77</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>76.90000000000001</v>
+      </c>
+      <c r="I67" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3022,24 +2701,23 @@
         <v>3606</v>
       </c>
       <c r="G68" t="n">
-        <v>500225.4601051432</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
         <v>77</v>
       </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3061,24 +2739,21 @@
         <v>17231.7167</v>
       </c>
       <c r="G69" t="n">
-        <v>517457.1768051432</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>77</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3100,24 +2775,21 @@
         <v>700.4153</v>
       </c>
       <c r="G70" t="n">
-        <v>518157.5921051432</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>77</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3139,24 +2811,21 @@
         <v>100</v>
       </c>
       <c r="G71" t="n">
-        <v>518057.5921051432</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>77</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3178,24 +2847,21 @@
         <v>2000</v>
       </c>
       <c r="G72" t="n">
-        <v>520057.5921051432</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>77</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3217,24 +2883,21 @@
         <v>1185.5032</v>
       </c>
       <c r="G73" t="n">
-        <v>520057.5921051432</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>77</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3256,24 +2919,21 @@
         <v>7022.8</v>
       </c>
       <c r="G74" t="n">
-        <v>520057.5921051432</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>77</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3295,24 +2955,21 @@
         <v>5000</v>
       </c>
       <c r="G75" t="n">
-        <v>525057.5921051432</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>77</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3334,24 +2991,21 @@
         <v>693</v>
       </c>
       <c r="G76" t="n">
-        <v>525750.5921051432</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>77</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3373,24 +3027,21 @@
         <v>1156</v>
       </c>
       <c r="G77" t="n">
-        <v>526906.5921051432</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>77</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3412,24 +3063,21 @@
         <v>99</v>
       </c>
       <c r="G78" t="n">
-        <v>527005.5921051432</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>77</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3451,24 +3099,21 @@
         <v>7191.0799</v>
       </c>
       <c r="G79" t="n">
-        <v>527005.5921051432</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>77</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3490,24 +3135,21 @@
         <v>1542.4029</v>
       </c>
       <c r="G80" t="n">
-        <v>527005.5921051432</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>77</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3529,24 +3171,21 @@
         <v>114.6207</v>
       </c>
       <c r="G81" t="n">
-        <v>526890.9714051433</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>77</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3568,24 +3207,21 @@
         <v>7428.6781</v>
       </c>
       <c r="G82" t="n">
-        <v>519462.2933051432</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>77</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3607,24 +3243,21 @@
         <v>1391</v>
       </c>
       <c r="G83" t="n">
-        <v>520853.2933051432</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>77</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3646,24 +3279,21 @@
         <v>3733.1798</v>
       </c>
       <c r="G84" t="n">
-        <v>524586.4731051433</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>77</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3685,24 +3315,21 @@
         <v>5046.7211</v>
       </c>
       <c r="G85" t="n">
-        <v>519539.7520051433</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>77</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3724,24 +3351,21 @@
         <v>4050.3048</v>
       </c>
       <c r="G86" t="n">
-        <v>519539.7520051433</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>77</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3763,24 +3387,21 @@
         <v>18986.7275</v>
       </c>
       <c r="G87" t="n">
-        <v>538526.4795051432</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>77</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3802,24 +3423,21 @@
         <v>397.3949</v>
       </c>
       <c r="G88" t="n">
-        <v>538526.4795051432</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>77</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3841,24 +3459,21 @@
         <v>634.5177664974619</v>
       </c>
       <c r="G89" t="n">
-        <v>538526.4795051432</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>77</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3880,24 +3495,21 @@
         <v>4846.268733502538</v>
       </c>
       <c r="G90" t="n">
-        <v>538526.4795051432</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>77</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1.018376623376623</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3919,18 +3531,21 @@
         <v>114.0009</v>
       </c>
       <c r="G91" t="n">
-        <v>538640.4804051432</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3952,18 +3567,21 @@
         <v>300</v>
       </c>
       <c r="G92" t="n">
-        <v>538640.4804051432</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3985,18 +3603,21 @@
         <v>4846.2688</v>
       </c>
       <c r="G93" t="n">
-        <v>533794.2116051433</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4018,18 +3639,21 @@
         <v>78817.4026</v>
       </c>
       <c r="G94" t="n">
-        <v>612611.6142051433</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4051,18 +3675,21 @@
         <v>626.6553</v>
       </c>
       <c r="G95" t="n">
-        <v>612611.6142051433</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4084,18 +3711,21 @@
         <v>47</v>
       </c>
       <c r="G96" t="n">
-        <v>612611.6142051433</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4117,18 +3747,21 @@
         <v>6368.2733</v>
       </c>
       <c r="G97" t="n">
-        <v>618979.8875051433</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4150,18 +3783,21 @@
         <v>5311.5301</v>
       </c>
       <c r="G98" t="n">
-        <v>618979.8875051433</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4183,18 +3819,21 @@
         <v>1073.2839</v>
       </c>
       <c r="G99" t="n">
-        <v>620053.1714051433</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4216,18 +3855,21 @@
         <v>956.4697</v>
       </c>
       <c r="G100" t="n">
-        <v>619096.7017051433</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4249,18 +3891,21 @@
         <v>5071.2426</v>
       </c>
       <c r="G101" t="n">
-        <v>619096.7017051433</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4282,18 +3927,21 @@
         <v>27736.753</v>
       </c>
       <c r="G102" t="n">
-        <v>619096.7017051433</v>
-      </c>
-      <c r="H102" t="n">
         <v>2</v>
       </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1.019611398963731</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4315,18 +3963,15 @@
         <v>19524.5029</v>
       </c>
       <c r="G103" t="n">
-        <v>599572.1988051434</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4348,18 +3993,15 @@
         <v>23733.7626</v>
       </c>
       <c r="G104" t="n">
-        <v>623305.9614051434</v>
-      </c>
-      <c r="H104" t="n">
         <v>2</v>
       </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4381,18 +4023,15 @@
         <v>1522.2077</v>
       </c>
       <c r="G105" t="n">
-        <v>623305.9614051434</v>
-      </c>
-      <c r="H105" t="n">
         <v>2</v>
       </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4414,18 +4053,15 @@
         <v>11453.3745</v>
       </c>
       <c r="G106" t="n">
-        <v>611852.5869051433</v>
-      </c>
-      <c r="H106" t="n">
         <v>2</v>
       </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4447,18 +4083,15 @@
         <v>1521.4812</v>
       </c>
       <c r="G107" t="n">
-        <v>611852.5869051433</v>
-      </c>
-      <c r="H107" t="n">
         <v>2</v>
       </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4480,18 +4113,15 @@
         <v>129</v>
       </c>
       <c r="G108" t="n">
-        <v>611981.5869051433</v>
-      </c>
-      <c r="H108" t="n">
         <v>2</v>
       </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4513,18 +4143,15 @@
         <v>1064.1179</v>
       </c>
       <c r="G109" t="n">
-        <v>610917.4690051434</v>
-      </c>
-      <c r="H109" t="n">
         <v>2</v>
       </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4546,18 +4173,15 @@
         <v>92898.09239999999</v>
       </c>
       <c r="G110" t="n">
-        <v>703815.5614051434</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4579,18 +4203,15 @@
         <v>71286.08809999999</v>
       </c>
       <c r="G111" t="n">
-        <v>632529.4733051434</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4612,18 +4233,15 @@
         <v>16.3926</v>
       </c>
       <c r="G112" t="n">
-        <v>632529.4733051434</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4645,18 +4263,15 @@
         <v>901.4094</v>
       </c>
       <c r="G113" t="n">
-        <v>631628.0639051434</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4678,18 +4293,15 @@
         <v>634.5177</v>
       </c>
       <c r="G114" t="n">
-        <v>630993.5462051434</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4711,18 +4323,15 @@
         <v>12848</v>
       </c>
       <c r="G115" t="n">
-        <v>630993.5462051434</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4744,18 +4353,15 @@
         <v>9022.204400000001</v>
       </c>
       <c r="G116" t="n">
-        <v>621971.3418051434</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4777,18 +4383,15 @@
         <v>20000</v>
       </c>
       <c r="G117" t="n">
-        <v>621971.3418051434</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4810,18 +4413,15 @@
         <v>118010.3408</v>
       </c>
       <c r="G118" t="n">
-        <v>503961.0010051434</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4843,18 +4443,15 @@
         <v>103.4152</v>
       </c>
       <c r="G119" t="n">
-        <v>503857.5858051434</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4876,18 +4473,15 @@
         <v>647.6684</v>
       </c>
       <c r="G120" t="n">
-        <v>503857.5858051434</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4909,18 +4503,15 @@
         <v>622.879</v>
       </c>
       <c r="G121" t="n">
-        <v>503234.7068051434</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4942,18 +4533,15 @@
         <v>477.3561</v>
       </c>
       <c r="G122" t="n">
-        <v>503712.0629051434</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4975,18 +4563,15 @@
         <v>538.2907</v>
       </c>
       <c r="G123" t="n">
-        <v>503712.0629051434</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5008,18 +4593,15 @@
         <v>291.6637</v>
       </c>
       <c r="G124" t="n">
-        <v>503420.3992051434</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5041,18 +4623,15 @@
         <v>693.0903</v>
       </c>
       <c r="G125" t="n">
-        <v>503420.3992051434</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5074,18 +4653,15 @@
         <v>2684.2364</v>
       </c>
       <c r="G126" t="n">
-        <v>500736.1628051434</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5107,18 +4683,19 @@
         <v>4594</v>
       </c>
       <c r="G127" t="n">
-        <v>505330.1628051434</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>76.5</v>
+      </c>
+      <c r="I127" t="n">
+        <v>76.5</v>
+      </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5140,18 +4717,21 @@
         <v>11568.8429</v>
       </c>
       <c r="G128" t="n">
-        <v>493761.3199051434</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5173,18 +4753,23 @@
         <v>31.6215</v>
       </c>
       <c r="G129" t="n">
-        <v>493729.6984051434</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>76.90000000000001</v>
+      </c>
+      <c r="I129" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5206,18 +4791,19 @@
         <v>147</v>
       </c>
       <c r="G130" t="n">
-        <v>493876.6984051434</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>76.8</v>
+      </c>
+      <c r="I130" t="n">
+        <v>76.8</v>
+      </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5239,18 +4825,23 @@
         <v>122.1218</v>
       </c>
       <c r="G131" t="n">
-        <v>493754.5766051434</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>77.09999999999999</v>
+      </c>
+      <c r="I131" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5272,18 +4863,23 @@
         <v>20055.3705</v>
       </c>
       <c r="G132" t="n">
-        <v>493754.5766051434</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>77</v>
+      </c>
+      <c r="I132" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5305,18 +4901,19 @@
         <v>6443.7</v>
       </c>
       <c r="G133" t="n">
-        <v>500198.2766051434</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>77</v>
+      </c>
+      <c r="I133" t="n">
+        <v>77</v>
+      </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5338,18 +4935,23 @@
         <v>147.2607</v>
       </c>
       <c r="G134" t="n">
-        <v>500051.0159051434</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>77.3</v>
+      </c>
+      <c r="I134" t="n">
+        <v>77</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5371,18 +4973,23 @@
         <v>205</v>
       </c>
       <c r="G135" t="n">
-        <v>500256.0159051434</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>77.09999999999999</v>
+      </c>
+      <c r="I135" t="n">
+        <v>77</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5404,18 +5011,15 @@
         <v>205</v>
       </c>
       <c r="G136" t="n">
-        <v>500461.0159051434</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5437,18 +5041,15 @@
         <v>3032.4234</v>
       </c>
       <c r="G137" t="n">
-        <v>497428.5925051434</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5470,18 +5071,19 @@
         <v>649.3507</v>
       </c>
       <c r="G138" t="n">
-        <v>496779.2418051434</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>76.8</v>
+      </c>
+      <c r="I138" t="n">
+        <v>76.8</v>
+      </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5503,18 +5105,23 @@
         <v>27704.2789</v>
       </c>
       <c r="G139" t="n">
-        <v>469074.9629051434</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>76.59999999999999</v>
+      </c>
+      <c r="I139" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5536,18 +5143,23 @@
         <v>20000</v>
       </c>
       <c r="G140" t="n">
-        <v>449074.9629051434</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>76.5</v>
+      </c>
+      <c r="I140" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5569,18 +5181,19 @@
         <v>720</v>
       </c>
       <c r="G141" t="n">
-        <v>449074.9629051434</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>76.40000000000001</v>
+      </c>
+      <c r="I141" t="n">
+        <v>76.40000000000001</v>
+      </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5602,18 +5215,23 @@
         <v>37109.8928</v>
       </c>
       <c r="G142" t="n">
-        <v>486184.8557051434</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>76.40000000000001</v>
+      </c>
+      <c r="I142" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5635,18 +5253,23 @@
         <v>591.306</v>
       </c>
       <c r="G143" t="n">
-        <v>486776.1617051434</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>76.7</v>
+      </c>
+      <c r="I143" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5668,18 +5291,23 @@
         <v>18077.0832</v>
       </c>
       <c r="G144" t="n">
-        <v>468699.0785051434</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>76.90000000000001</v>
+      </c>
+      <c r="I144" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5701,18 +5329,23 @@
         <v>22078.6627</v>
       </c>
       <c r="G145" t="n">
-        <v>446620.4158051434</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>76.40000000000001</v>
+      </c>
+      <c r="I145" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5734,18 +5367,23 @@
         <v>2391.8543</v>
       </c>
       <c r="G146" t="n">
-        <v>449012.2701051434</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>76.2</v>
+      </c>
+      <c r="I146" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5767,18 +5405,23 @@
         <v>26</v>
       </c>
       <c r="G147" t="n">
-        <v>449012.2701051434</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>76.59999999999999</v>
+      </c>
+      <c r="I147" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5800,18 +5443,23 @@
         <v>12384.3118</v>
       </c>
       <c r="G148" t="n">
-        <v>461396.5819051435</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>76.59999999999999</v>
+      </c>
+      <c r="I148" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5833,18 +5481,23 @@
         <v>5818.9895</v>
       </c>
       <c r="G149" t="n">
-        <v>455577.5924051434</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>77</v>
+      </c>
+      <c r="I149" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5866,18 +5519,23 @@
         <v>221.1517</v>
       </c>
       <c r="G150" t="n">
-        <v>455356.4407051434</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>76.8</v>
+      </c>
+      <c r="I150" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5899,18 +5557,23 @@
         <v>255.1126</v>
       </c>
       <c r="G151" t="n">
-        <v>455611.5533051434</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>76.59999999999999</v>
+      </c>
+      <c r="I151" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5932,18 +5595,23 @@
         <v>120</v>
       </c>
       <c r="G152" t="n">
-        <v>455731.5533051434</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>76.7</v>
+      </c>
+      <c r="I152" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5965,18 +5633,23 @@
         <v>7593.2394</v>
       </c>
       <c r="G153" t="n">
-        <v>455731.5533051434</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>76.90000000000001</v>
+      </c>
+      <c r="I153" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5998,18 +5671,23 @@
         <v>123.1352</v>
       </c>
       <c r="G154" t="n">
-        <v>455854.6885051435</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>76.90000000000001</v>
+      </c>
+      <c r="I154" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6031,18 +5709,23 @@
         <v>12785.2297</v>
       </c>
       <c r="G155" t="n">
-        <v>468639.9182051435</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>77.2</v>
+      </c>
+      <c r="I155" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6064,18 +5747,21 @@
         <v>730</v>
       </c>
       <c r="G156" t="n">
-        <v>469369.9182051435</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6097,18 +5783,21 @@
         <v>29309.1615</v>
       </c>
       <c r="G157" t="n">
-        <v>498679.0797051435</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6130,18 +5819,21 @@
         <v>9636.0641</v>
       </c>
       <c r="G158" t="n">
-        <v>489043.0156051434</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6163,18 +5855,21 @@
         <v>3210.671</v>
       </c>
       <c r="G159" t="n">
-        <v>492253.6866051434</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6196,18 +5891,21 @@
         <v>4851.2615</v>
       </c>
       <c r="G160" t="n">
-        <v>492253.6866051434</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6229,18 +5927,21 @@
         <v>4302.3</v>
       </c>
       <c r="G161" t="n">
-        <v>492253.6866051434</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6262,18 +5963,21 @@
         <v>39.5447</v>
       </c>
       <c r="G162" t="n">
-        <v>492214.1419051434</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6295,18 +5999,21 @@
         <v>362.6845</v>
       </c>
       <c r="G163" t="n">
-        <v>492576.8264051434</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6328,18 +6035,21 @@
         <v>3884.3733</v>
       </c>
       <c r="G164" t="n">
-        <v>488692.4531051434</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6361,18 +6071,21 @@
         <v>120</v>
       </c>
       <c r="G165" t="n">
-        <v>488812.4531051434</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6394,18 +6107,21 @@
         <v>63.5385</v>
       </c>
       <c r="G166" t="n">
-        <v>488748.9146051434</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6427,18 +6143,21 @@
         <v>550.4669</v>
       </c>
       <c r="G167" t="n">
-        <v>488748.9146051434</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6460,18 +6179,21 @@
         <v>29800.1615</v>
       </c>
       <c r="G168" t="n">
-        <v>458948.7531051434</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6493,18 +6215,21 @@
         <v>1284.6735</v>
       </c>
       <c r="G169" t="n">
-        <v>457664.0796051434</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6526,18 +6251,21 @@
         <v>11562.0616</v>
       </c>
       <c r="G170" t="n">
-        <v>446102.0180051434</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6559,18 +6287,21 @@
         <v>180.3518</v>
       </c>
       <c r="G171" t="n">
-        <v>446282.3698051434</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6592,18 +6323,21 @@
         <v>7137.6956</v>
       </c>
       <c r="G172" t="n">
-        <v>453420.0654051434</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6625,18 +6359,21 @@
         <v>634.1961</v>
       </c>
       <c r="G173" t="n">
-        <v>454054.2615051434</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6658,18 +6395,21 @@
         <v>1995</v>
       </c>
       <c r="G174" t="n">
-        <v>454054.2615051434</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6691,18 +6431,21 @@
         <v>58</v>
       </c>
       <c r="G175" t="n">
-        <v>454112.2615051434</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6724,18 +6467,21 @@
         <v>0.3801</v>
       </c>
       <c r="G176" t="n">
-        <v>454112.2615051434</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6757,18 +6503,21 @@
         <v>23635.9566</v>
       </c>
       <c r="G177" t="n">
-        <v>477748.2181051433</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6790,18 +6539,21 @@
         <v>17450.5628</v>
       </c>
       <c r="G178" t="n">
-        <v>477748.2181051433</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6823,18 +6575,21 @@
         <v>6290.9689</v>
       </c>
       <c r="G179" t="n">
-        <v>484039.1870051433</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6856,18 +6611,21 @@
         <v>39374.5962</v>
       </c>
       <c r="G180" t="n">
-        <v>523413.7832051433</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6889,18 +6647,21 @@
         <v>2856.7368</v>
       </c>
       <c r="G181" t="n">
-        <v>526270.5200051432</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6922,18 +6683,21 @@
         <v>2767.135</v>
       </c>
       <c r="G182" t="n">
-        <v>529037.6550051433</v>
-      </c>
-      <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6955,18 +6719,21 @@
         <v>42339.0909</v>
       </c>
       <c r="G183" t="n">
-        <v>571376.7459051432</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6988,18 +6755,21 @@
         <v>9221.188399999999</v>
       </c>
       <c r="G184" t="n">
-        <v>571376.7459051432</v>
-      </c>
-      <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7021,18 +6791,21 @@
         <v>3781.0454</v>
       </c>
       <c r="G185" t="n">
-        <v>571376.7459051432</v>
-      </c>
-      <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7054,18 +6827,21 @@
         <v>2199.7163</v>
       </c>
       <c r="G186" t="n">
-        <v>571376.7459051432</v>
-      </c>
-      <c r="H186" t="n">
         <v>2</v>
       </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1.038193717277487</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7087,18 +6863,15 @@
         <v>115.196</v>
       </c>
       <c r="G187" t="n">
-        <v>571261.5499051432</v>
-      </c>
-      <c r="H187" t="n">
         <v>2</v>
       </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7120,18 +6893,15 @@
         <v>280.8253</v>
       </c>
       <c r="G188" t="n">
-        <v>571261.5499051432</v>
-      </c>
-      <c r="H188" t="n">
         <v>2</v>
       </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7153,18 +6923,15 @@
         <v>14426.6251</v>
       </c>
       <c r="G189" t="n">
-        <v>585688.1750051432</v>
-      </c>
-      <c r="H189" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7186,18 +6953,15 @@
         <v>13736</v>
       </c>
       <c r="G190" t="n">
-        <v>599424.1750051432</v>
-      </c>
-      <c r="H190" t="n">
         <v>2</v>
       </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7219,18 +6983,15 @@
         <v>13231.7704</v>
       </c>
       <c r="G191" t="n">
-        <v>599424.1750051432</v>
-      </c>
-      <c r="H191" t="n">
         <v>2</v>
       </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7252,18 +7013,15 @@
         <v>2394.3316</v>
       </c>
       <c r="G192" t="n">
-        <v>599424.1750051432</v>
-      </c>
-      <c r="H192" t="n">
         <v>2</v>
       </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7285,18 +7043,15 @@
         <v>1634.2425</v>
       </c>
       <c r="G193" t="n">
-        <v>597789.9325051431</v>
-      </c>
-      <c r="H193" t="n">
         <v>2</v>
       </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7318,18 +7073,15 @@
         <v>35815.5527</v>
       </c>
       <c r="G194" t="n">
-        <v>561974.3798051431</v>
-      </c>
-      <c r="H194" t="n">
         <v>2</v>
       </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7351,18 +7103,15 @@
         <v>30060.3572</v>
       </c>
       <c r="G195" t="n">
-        <v>561974.3798051431</v>
-      </c>
-      <c r="H195" t="n">
         <v>2</v>
       </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7384,18 +7133,15 @@
         <v>4266.0901</v>
       </c>
       <c r="G196" t="n">
-        <v>557708.2897051431</v>
-      </c>
-      <c r="H196" t="n">
         <v>2</v>
       </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7417,18 +7163,15 @@
         <v>17540.3485</v>
       </c>
       <c r="G197" t="n">
-        <v>540167.9412051431</v>
-      </c>
-      <c r="H197" t="n">
         <v>2</v>
       </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7450,18 +7193,15 @@
         <v>391.0833</v>
       </c>
       <c r="G198" t="n">
-        <v>539776.8579051431</v>
-      </c>
-      <c r="H198" t="n">
         <v>2</v>
       </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7483,18 +7223,15 @@
         <v>2582.9278</v>
       </c>
       <c r="G199" t="n">
-        <v>542359.785705143</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7516,18 +7253,15 @@
         <v>7</v>
       </c>
       <c r="G200" t="n">
-        <v>542366.785705143</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7549,18 +7283,15 @@
         <v>1208.8481</v>
       </c>
       <c r="G201" t="n">
-        <v>543575.6338051429</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7582,18 +7313,15 @@
         <v>10</v>
       </c>
       <c r="G202" t="n">
-        <v>543585.6338051429</v>
-      </c>
-      <c r="H202" t="n">
         <v>2</v>
       </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7615,18 +7343,15 @@
         <v>1320.2347</v>
       </c>
       <c r="G203" t="n">
-        <v>543585.6338051429</v>
-      </c>
-      <c r="H203" t="n">
         <v>2</v>
       </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7648,18 +7373,15 @@
         <v>44554.3022</v>
       </c>
       <c r="G204" t="n">
-        <v>499031.331605143</v>
-      </c>
-      <c r="H204" t="n">
         <v>2</v>
       </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7681,18 +7403,15 @@
         <v>11238.2297</v>
       </c>
       <c r="G205" t="n">
-        <v>510269.561305143</v>
-      </c>
-      <c r="H205" t="n">
         <v>2</v>
       </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7714,18 +7433,15 @@
         <v>3482.4866</v>
       </c>
       <c r="G206" t="n">
-        <v>513752.047905143</v>
-      </c>
-      <c r="H206" t="n">
         <v>2</v>
       </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7747,18 +7463,15 @@
         <v>1838.6095</v>
       </c>
       <c r="G207" t="n">
-        <v>511913.438405143</v>
-      </c>
-      <c r="H207" t="n">
         <v>2</v>
       </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7780,18 +7493,15 @@
         <v>24861.3096</v>
       </c>
       <c r="G208" t="n">
-        <v>487052.128805143</v>
-      </c>
-      <c r="H208" t="n">
         <v>2</v>
       </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7813,18 +7523,15 @@
         <v>1320.2347</v>
       </c>
       <c r="G209" t="n">
-        <v>485731.894105143</v>
-      </c>
-      <c r="H209" t="n">
         <v>2</v>
       </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7846,18 +7553,15 @@
         <v>7627.8665</v>
       </c>
       <c r="G210" t="n">
-        <v>478104.027605143</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7879,18 +7583,15 @@
         <v>13554.6965</v>
       </c>
       <c r="G211" t="n">
-        <v>491658.724105143</v>
-      </c>
-      <c r="H211" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7912,18 +7613,15 @@
         <v>451.8645</v>
       </c>
       <c r="G212" t="n">
-        <v>492110.5886051431</v>
-      </c>
-      <c r="H212" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7945,18 +7643,15 @@
         <v>2414.1593</v>
       </c>
       <c r="G213" t="n">
-        <v>494524.7479051431</v>
-      </c>
-      <c r="H213" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7978,18 +7673,15 @@
         <v>761.0309</v>
       </c>
       <c r="G214" t="n">
-        <v>495285.7788051431</v>
-      </c>
-      <c r="H214" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8011,18 +7703,15 @@
         <v>76935.1666</v>
       </c>
       <c r="G215" t="n">
-        <v>418350.6122051431</v>
-      </c>
-      <c r="H215" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8044,18 +7733,15 @@
         <v>60480.3628</v>
       </c>
       <c r="G216" t="n">
-        <v>357870.2494051431</v>
-      </c>
-      <c r="H216" t="n">
         <v>2</v>
       </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8077,18 +7763,15 @@
         <v>2641.1772</v>
       </c>
       <c r="G217" t="n">
-        <v>355229.0722051431</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8110,18 +7793,15 @@
         <v>67459.818</v>
       </c>
       <c r="G218" t="n">
-        <v>422688.8902051431</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8143,18 +7823,15 @@
         <v>730</v>
       </c>
       <c r="G219" t="n">
-        <v>423418.8902051431</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8176,18 +7853,15 @@
         <v>2501</v>
       </c>
       <c r="G220" t="n">
-        <v>423418.8902051431</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8209,18 +7883,15 @@
         <v>941.0121</v>
       </c>
       <c r="G221" t="n">
-        <v>424359.9023051431</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8242,18 +7913,15 @@
         <v>5711.4059</v>
       </c>
       <c r="G222" t="n">
-        <v>418648.4964051431</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8275,18 +7943,15 @@
         <v>6644.6478</v>
       </c>
       <c r="G223" t="n">
-        <v>412003.8486051431</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8308,18 +7973,15 @@
         <v>25</v>
       </c>
       <c r="G224" t="n">
-        <v>412028.8486051431</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8341,18 +8003,15 @@
         <v>5601.9346</v>
       </c>
       <c r="G225" t="n">
-        <v>412028.8486051431</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8374,18 +8033,15 @@
         <v>3838</v>
       </c>
       <c r="G226" t="n">
-        <v>415866.8486051431</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8407,18 +8063,15 @@
         <v>2403.3554</v>
       </c>
       <c r="G227" t="n">
-        <v>413463.4932051431</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8440,18 +8093,15 @@
         <v>15846.1169</v>
       </c>
       <c r="G228" t="n">
-        <v>413463.4932051431</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8473,18 +8123,15 @@
         <v>3527.0065</v>
       </c>
       <c r="G229" t="n">
-        <v>413463.4932051431</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8506,18 +8153,15 @@
         <v>947.5573000000001</v>
       </c>
       <c r="G230" t="n">
-        <v>414411.0505051431</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8539,18 +8183,15 @@
         <v>200</v>
       </c>
       <c r="G231" t="n">
-        <v>414211.0505051431</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8572,18 +8213,15 @@
         <v>4597.3731</v>
       </c>
       <c r="G232" t="n">
-        <v>418808.4236051432</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8605,18 +8243,15 @@
         <v>642</v>
       </c>
       <c r="G233" t="n">
-        <v>419450.4236051432</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8638,18 +8273,15 @@
         <v>42501.4907</v>
       </c>
       <c r="G234" t="n">
-        <v>376948.9329051431</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8671,18 +8303,15 @@
         <v>149.625</v>
       </c>
       <c r="G235" t="n">
-        <v>376948.9329051431</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8704,18 +8333,15 @@
         <v>37560.6784</v>
       </c>
       <c r="G236" t="n">
-        <v>414509.6113051431</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8737,18 +8363,15 @@
         <v>21.0753</v>
       </c>
       <c r="G237" t="n">
-        <v>414488.5360051431</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8770,18 +8393,15 @@
         <v>175.6921</v>
       </c>
       <c r="G238" t="n">
-        <v>414664.2281051431</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8803,18 +8423,15 @@
         <v>6396.504161470216</v>
       </c>
       <c r="G239" t="n">
-        <v>414664.2281051431</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8836,18 +8453,15 @@
         <v>1542.4029</v>
       </c>
       <c r="G240" t="n">
-        <v>413121.8252051431</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8869,18 +8483,15 @@
         <v>20278.1522</v>
       </c>
       <c r="G241" t="n">
-        <v>433399.9774051431</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8902,18 +8513,15 @@
         <v>210</v>
       </c>
       <c r="G242" t="n">
-        <v>433189.9774051431</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8935,18 +8543,15 @@
         <v>5921</v>
       </c>
       <c r="G243" t="n">
-        <v>439110.9774051431</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8968,18 +8573,15 @@
         <v>48002.4075</v>
       </c>
       <c r="G244" t="n">
-        <v>487113.3849051431</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9001,18 +8603,15 @@
         <v>166.0157</v>
       </c>
       <c r="G245" t="n">
-        <v>486947.3692051431</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9034,18 +8633,15 @@
         <v>8841.0843</v>
       </c>
       <c r="G246" t="n">
-        <v>486947.3692051431</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9067,18 +8663,15 @@
         <v>75547.36229999999</v>
       </c>
       <c r="G247" t="n">
-        <v>411400.0069051431</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9100,18 +8693,15 @@
         <v>26627.1901</v>
       </c>
       <c r="G248" t="n">
-        <v>384772.8168051431</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9133,18 +8723,15 @@
         <v>12887</v>
       </c>
       <c r="G249" t="n">
-        <v>397659.8168051431</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9166,18 +8753,15 @@
         <v>22038.0296</v>
       </c>
       <c r="G250" t="n">
-        <v>375621.7872051431</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9199,18 +8783,15 @@
         <v>4694.2777</v>
       </c>
       <c r="G251" t="n">
-        <v>375621.7872051431</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9232,18 +8813,15 @@
         <v>928.583</v>
       </c>
       <c r="G252" t="n">
-        <v>375621.7872051431</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9265,18 +8843,15 @@
         <v>38206.3061</v>
       </c>
       <c r="G253" t="n">
-        <v>413828.0933051431</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9298,18 +8873,15 @@
         <v>21437.3598</v>
       </c>
       <c r="G254" t="n">
-        <v>392390.7335051431</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9331,18 +8903,15 @@
         <v>9181.683199999999</v>
       </c>
       <c r="G255" t="n">
-        <v>401572.4167051431</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9364,18 +8933,15 @@
         <v>806.36</v>
       </c>
       <c r="G256" t="n">
-        <v>401572.4167051431</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9397,18 +8963,15 @@
         <v>651.9607</v>
       </c>
       <c r="G257" t="n">
-        <v>400920.4560051431</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9430,18 +8993,15 @@
         <v>173.759</v>
       </c>
       <c r="G258" t="n">
-        <v>401094.2150051431</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9463,18 +9023,15 @@
         <v>114.8784</v>
       </c>
       <c r="G259" t="n">
-        <v>401209.0934051431</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
